--- a/docs/Correlacion.xlsx
+++ b/docs/Correlacion.xlsx
@@ -223,76 +223,76 @@
         <v>1.0</v>
       </c>
       <c r="C2" t="n">
-        <v>0.15178820180914482</v>
+        <v>0.15193166363410365</v>
       </c>
       <c r="D2" t="n">
-        <v>0.40235984115342166</v>
+        <v>0.4024163631242274</v>
       </c>
       <c r="E2" t="n">
-        <v>-0.2613703895264798</v>
+        <v>-0.26136914956705654</v>
       </c>
       <c r="F2" t="n">
-        <v>0.08568134886886211</v>
+        <v>0.08567396187878927</v>
       </c>
       <c r="G2" t="n">
-        <v>0.09406299277991532</v>
+        <v>0.0940530750326406</v>
       </c>
       <c r="H2" t="n">
-        <v>0.8237211415329279</v>
+        <v>0.8238722432873298</v>
       </c>
       <c r="I2" t="n">
-        <v>0.7459794421347599</v>
+        <v>0.7349644893289486</v>
       </c>
       <c r="J2" t="n">
-        <v>0.9114327109620018</v>
+        <v>0.9115736614095262</v>
       </c>
       <c r="K2" t="n">
-        <v>-0.2527398442423127</v>
+        <v>-0.25273429981618145</v>
       </c>
       <c r="L2" t="n">
-        <v>0.08551689243117366</v>
+        <v>0.0855223849805489</v>
       </c>
       <c r="M2" t="n">
-        <v>0.0751234618883194</v>
+        <v>0.07507187345534551</v>
       </c>
       <c r="N2" t="n">
-        <v>0.26586382609855896</v>
+        <v>0.2649912355622293</v>
       </c>
       <c r="O2" t="n">
-        <v>0.09897341363034219</v>
+        <v>0.09898073580391141</v>
       </c>
       <c r="P2" t="n">
-        <v>0.7198610212217741</v>
+        <v>0.7199076399549454</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.41847481104010875</v>
+        <v>0.41841036656617514</v>
       </c>
       <c r="R2" t="n">
-        <v>0.668885338760564</v>
+        <v>0.6689584939287695</v>
       </c>
       <c r="S2" t="n">
-        <v>0.7609142390384921</v>
+        <v>0.7608965599327245</v>
       </c>
       <c r="T2" t="n">
-        <v>0.663057849236512</v>
+        <v>0.6630712849446293</v>
       </c>
       <c r="U2" t="n">
-        <v>0.8029844314142588</v>
+        <v>0.8029863325731461</v>
       </c>
       <c r="V2" t="n">
-        <v>0.2861588638797394</v>
+        <v>0.28617676272289555</v>
       </c>
       <c r="W2" t="n">
-        <v>-0.08479198617028212</v>
+        <v>-0.08458782956211898</v>
       </c>
       <c r="X2" t="n">
-        <v>-0.07302379821679111</v>
+        <v>-0.07284511030367655</v>
       </c>
       <c r="Y2" t="n">
-        <v>0.08460270207281333</v>
+        <v>0.08455590777682177</v>
       </c>
       <c r="Z2" t="n">
-        <v>-0.4008635492248569</v>
+        <v>-0.4011099806689772</v>
       </c>
     </row>
     <row r="3">
@@ -300,79 +300,79 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>0.15178820180914482</v>
+        <v>0.15193166363410365</v>
       </c>
       <c r="C3" t="n">
         <v>1.0</v>
       </c>
       <c r="D3" t="n">
-        <v>0.25287416241424043</v>
+        <v>0.25286605418939784</v>
       </c>
       <c r="E3" t="n">
-        <v>0.03784493104691635</v>
+        <v>0.03786431356993579</v>
       </c>
       <c r="F3" t="n">
-        <v>0.6187752636510666</v>
+        <v>0.6186671908127254</v>
       </c>
       <c r="G3" t="n">
-        <v>0.5393209585439658</v>
+        <v>0.5392253551574553</v>
       </c>
       <c r="H3" t="n">
-        <v>0.1982605937323838</v>
+        <v>0.19826409057912206</v>
       </c>
       <c r="I3" t="n">
-        <v>0.08902875659926299</v>
+        <v>0.08475633843868018</v>
       </c>
       <c r="J3" t="n">
-        <v>0.1601325282375235</v>
+        <v>0.16015669423347648</v>
       </c>
       <c r="K3" t="n">
-        <v>-0.24777560479207827</v>
+        <v>-0.24757342733345372</v>
       </c>
       <c r="L3" t="n">
-        <v>-0.0139819714733911</v>
+        <v>-0.014011475909318123</v>
       </c>
       <c r="M3" t="n">
-        <v>0.5539810099962037</v>
+        <v>0.5539502635758272</v>
       </c>
       <c r="N3" t="n">
-        <v>0.15895011606891815</v>
+        <v>0.15881967741018185</v>
       </c>
       <c r="O3" t="n">
-        <v>-0.08062579327619145</v>
+        <v>-0.08067872575838148</v>
       </c>
       <c r="P3" t="n">
-        <v>0.2031807598329241</v>
+        <v>0.20296257443487184</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.2199599112020001</v>
+        <v>0.21955187010836053</v>
       </c>
       <c r="R3" t="n">
-        <v>0.19239018610836975</v>
+        <v>0.1922578398223046</v>
       </c>
       <c r="S3" t="n">
-        <v>0.21095931666232537</v>
+        <v>0.2103514687794412</v>
       </c>
       <c r="T3" t="n">
-        <v>0.1309667387525537</v>
+        <v>0.1312054356926036</v>
       </c>
       <c r="U3" t="n">
-        <v>0.17682338925906219</v>
+        <v>0.17689659643524452</v>
       </c>
       <c r="V3" t="n">
-        <v>0.12397720396687362</v>
+        <v>0.12342536375189614</v>
       </c>
       <c r="W3" t="n">
-        <v>0.030130653466924312</v>
+        <v>0.030121489048508535</v>
       </c>
       <c r="X3" t="n">
-        <v>-0.08372123645505845</v>
+        <v>-0.08353010852171934</v>
       </c>
       <c r="Y3" t="n">
-        <v>0.1317082009992733</v>
+        <v>0.13194355810060088</v>
       </c>
       <c r="Z3" t="n">
-        <v>-0.1287168867134051</v>
+        <v>-0.12854336852620524</v>
       </c>
     </row>
     <row r="4">
@@ -380,79 +380,79 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>0.40235984115342166</v>
+        <v>0.4024163631242274</v>
       </c>
       <c r="C4" t="n">
-        <v>0.25287416241424043</v>
+        <v>0.25286605418939784</v>
       </c>
       <c r="D4" t="n">
         <v>1.0</v>
       </c>
       <c r="E4" t="n">
-        <v>0.1806827029738585</v>
+        <v>0.18072227230353563</v>
       </c>
       <c r="F4" t="n">
-        <v>-0.034062875548522095</v>
+        <v>-0.034253816051520315</v>
       </c>
       <c r="G4" t="n">
-        <v>0.07342890053074055</v>
+        <v>0.07320824707407643</v>
       </c>
       <c r="H4" t="n">
-        <v>0.6570893948155517</v>
+        <v>0.657093862146251</v>
       </c>
       <c r="I4" t="n">
-        <v>0.20587040369582152</v>
+        <v>0.18767579623297218</v>
       </c>
       <c r="J4" t="n">
-        <v>0.47270212152273505</v>
+        <v>0.4726839840318307</v>
       </c>
       <c r="K4" t="n">
-        <v>-0.5897679635994698</v>
+        <v>-0.5895197979131472</v>
       </c>
       <c r="L4" t="n">
-        <v>0.19923865292703524</v>
+        <v>0.1992782685888592</v>
       </c>
       <c r="M4" t="n">
-        <v>-0.05460032427072144</v>
+        <v>-0.054627650722051606</v>
       </c>
       <c r="N4" t="n">
-        <v>0.3915422837763535</v>
+        <v>0.3912074068938742</v>
       </c>
       <c r="O4" t="n">
-        <v>-0.13325727258254347</v>
+        <v>-0.1332189519573308</v>
       </c>
       <c r="P4" t="n">
-        <v>0.6921545062746607</v>
+        <v>0.6919856593643237</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.8212436345063915</v>
+        <v>0.8209267117920817</v>
       </c>
       <c r="R4" t="n">
-        <v>0.7409913728125943</v>
+        <v>0.7408899525340866</v>
       </c>
       <c r="S4" t="n">
-        <v>0.7409620516894665</v>
+        <v>0.7404885110111071</v>
       </c>
       <c r="T4" t="n">
-        <v>0.5303744040775561</v>
+        <v>0.5305627104623677</v>
       </c>
       <c r="U4" t="n">
-        <v>0.6175461410074543</v>
+        <v>0.6176050955657476</v>
       </c>
       <c r="V4" t="n">
-        <v>0.4286734730575572</v>
+        <v>0.4282428885074724</v>
       </c>
       <c r="W4" t="n">
-        <v>0.22525180084370286</v>
+        <v>0.22524543185423943</v>
       </c>
       <c r="X4" t="n">
-        <v>-0.6216668100703879</v>
+        <v>-0.6215194847103886</v>
       </c>
       <c r="Y4" t="n">
-        <v>0.3541034212667023</v>
+        <v>0.35428835451686685</v>
       </c>
       <c r="Z4" t="n">
-        <v>-0.4040967295033378</v>
+        <v>-0.403962001583791</v>
       </c>
     </row>
     <row r="5">
@@ -460,79 +460,79 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>-0.2613703895264798</v>
+        <v>-0.26136914956705654</v>
       </c>
       <c r="C5" t="n">
-        <v>0.03784493104691635</v>
+        <v>0.03786431356993579</v>
       </c>
       <c r="D5" t="n">
-        <v>0.1806827029738585</v>
+        <v>0.18072227230353563</v>
       </c>
       <c r="E5" t="n">
         <v>1.0</v>
       </c>
       <c r="F5" t="n">
-        <v>0.0327780775468991</v>
+        <v>0.03278172609462328</v>
       </c>
       <c r="G5" t="n">
-        <v>0.06033909695439854</v>
+        <v>0.06034470386514934</v>
       </c>
       <c r="H5" t="n">
-        <v>-0.013132440524073117</v>
+        <v>-0.013194352158107369</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.07500272215025765</v>
+        <v>-0.07021553936951251</v>
       </c>
       <c r="J5" t="n">
-        <v>-0.1742919145529678</v>
+        <v>-0.1744868333341813</v>
       </c>
       <c r="K5" t="n">
-        <v>-0.1171343471817348</v>
+        <v>-0.11713835008223378</v>
       </c>
       <c r="L5" t="n">
-        <v>0.08090236574063256</v>
+        <v>0.08090051761098734</v>
       </c>
       <c r="M5" t="n">
-        <v>-0.013623116398655327</v>
+        <v>-0.013601636024778029</v>
       </c>
       <c r="N5" t="n">
-        <v>0.17037158421769297</v>
+        <v>0.17068435440825117</v>
       </c>
       <c r="O5" t="n">
-        <v>-0.5241428156756738</v>
+        <v>-0.5241482125171177</v>
       </c>
       <c r="P5" t="n">
-        <v>0.044709836550658306</v>
+        <v>0.04469121278830977</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.17393718701820604</v>
+        <v>0.17396441728389117</v>
       </c>
       <c r="R5" t="n">
-        <v>0.0991928950249189</v>
+        <v>0.09916322927525269</v>
       </c>
       <c r="S5" t="n">
-        <v>0.012673818616274783</v>
+        <v>0.012681909356761818</v>
       </c>
       <c r="T5" t="n">
-        <v>0.03471180636901893</v>
+        <v>0.0347068955340546</v>
       </c>
       <c r="U5" t="n">
-        <v>-0.01738219990941913</v>
+        <v>-0.017382206999163766</v>
       </c>
       <c r="V5" t="n">
-        <v>0.31974103199419707</v>
+        <v>0.3197340145862147</v>
       </c>
       <c r="W5" t="n">
-        <v>0.21196029937779365</v>
+        <v>0.21187556600841595</v>
       </c>
       <c r="X5" t="n">
-        <v>-0.09345381819554281</v>
+        <v>-0.09352809362705967</v>
       </c>
       <c r="Y5" t="n">
-        <v>0.37100616318672514</v>
+        <v>0.3710258199189911</v>
       </c>
       <c r="Z5" t="n">
-        <v>-0.13793065523989362</v>
+        <v>-0.13782882248723416</v>
       </c>
     </row>
     <row r="6">
@@ -540,79 +540,79 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>0.08568134886886211</v>
+        <v>0.08567396187878927</v>
       </c>
       <c r="C6" t="n">
-        <v>0.6187752636510666</v>
+        <v>0.6186671908127254</v>
       </c>
       <c r="D6" t="n">
-        <v>-0.034062875548522095</v>
+        <v>-0.034253816051520315</v>
       </c>
       <c r="E6" t="n">
-        <v>0.0327780775468991</v>
+        <v>0.03278172609462328</v>
       </c>
       <c r="F6" t="n">
         <v>1.0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.47739435685511505</v>
+        <v>0.47738453602684344</v>
       </c>
       <c r="H6" t="n">
-        <v>0.0454961629056106</v>
+        <v>0.04575470388653489</v>
       </c>
       <c r="I6" t="n">
-        <v>0.06576770535828537</v>
+        <v>0.0696284899091743</v>
       </c>
       <c r="J6" t="n">
-        <v>0.056910222290631224</v>
+        <v>0.056843524935888824</v>
       </c>
       <c r="K6" t="n">
-        <v>0.014803255610963338</v>
+        <v>0.014816858874386139</v>
       </c>
       <c r="L6" t="n">
-        <v>9.135500867619533E-6</v>
+        <v>1.789392745322501E-5</v>
       </c>
       <c r="M6" t="n">
-        <v>0.9747191733791062</v>
+        <v>0.9746364699624246</v>
       </c>
       <c r="N6" t="n">
-        <v>0.02853304168495199</v>
+        <v>0.028450170906007804</v>
       </c>
       <c r="O6" t="n">
-        <v>-0.08188147165182905</v>
+        <v>-0.08187095677069421</v>
       </c>
       <c r="P6" t="n">
-        <v>-0.0017485067017838243</v>
+        <v>-0.0016707612131358106</v>
       </c>
       <c r="Q6" t="n">
-        <v>-0.020753365996418218</v>
+        <v>-0.02086679788706595</v>
       </c>
       <c r="R6" t="n">
-        <v>-0.031142691689961102</v>
+        <v>-0.03101900471251593</v>
       </c>
       <c r="S6" t="n">
-        <v>0.00437375208185223</v>
+        <v>0.004340057281572</v>
       </c>
       <c r="T6" t="n">
-        <v>-0.05523631691413752</v>
+        <v>-0.055216166178182945</v>
       </c>
       <c r="U6" t="n">
-        <v>0.04158958280799752</v>
+        <v>0.04158987793778277</v>
       </c>
       <c r="V6" t="n">
-        <v>0.11344960320315912</v>
+        <v>0.11348022264803917</v>
       </c>
       <c r="W6" t="n">
-        <v>-0.03993830086440237</v>
+        <v>-0.03958479114431451</v>
       </c>
       <c r="X6" t="n">
-        <v>0.03003659867749984</v>
+        <v>0.0303464641101001</v>
       </c>
       <c r="Y6" t="n">
-        <v>0.0262095765935437</v>
+        <v>0.026128403304239975</v>
       </c>
       <c r="Z6" t="n">
-        <v>-0.086782795635118</v>
+        <v>-0.08720840212673289</v>
       </c>
     </row>
     <row r="7">
@@ -620,79 +620,79 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>0.09406299277991532</v>
+        <v>0.0940530750326406</v>
       </c>
       <c r="C7" t="n">
-        <v>0.5393209585439658</v>
+        <v>0.5392253551574553</v>
       </c>
       <c r="D7" t="n">
-        <v>0.07342890053074055</v>
+        <v>0.07320824707407643</v>
       </c>
       <c r="E7" t="n">
-        <v>0.06033909695439854</v>
+        <v>0.06034470386514934</v>
       </c>
       <c r="F7" t="n">
-        <v>0.47739435685511505</v>
+        <v>0.47738453602684344</v>
       </c>
       <c r="G7" t="n">
         <v>1.0</v>
       </c>
       <c r="H7" t="n">
-        <v>0.06664631414703481</v>
+        <v>0.0670075874710362</v>
       </c>
       <c r="I7" t="n">
-        <v>0.1006864647507649</v>
+        <v>0.10193246633025822</v>
       </c>
       <c r="J7" t="n">
-        <v>0.08880013459744195</v>
+        <v>0.08870496606743415</v>
       </c>
       <c r="K7" t="n">
-        <v>-0.20517343823482348</v>
+        <v>-0.20515886606481024</v>
       </c>
       <c r="L7" t="n">
-        <v>-0.08852019947834908</v>
+        <v>-0.08850943948929031</v>
       </c>
       <c r="M7" t="n">
-        <v>0.43572194558673766</v>
+        <v>0.4356028991112492</v>
       </c>
       <c r="N7" t="n">
-        <v>0.13307753579321777</v>
+        <v>0.13303258518752728</v>
       </c>
       <c r="O7" t="n">
-        <v>-0.04451527880605521</v>
+        <v>-0.04450008562798925</v>
       </c>
       <c r="P7" t="n">
-        <v>0.07255068960238202</v>
+        <v>0.07266020606940225</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.021094968429770673</v>
+        <v>0.02093716738284558</v>
       </c>
       <c r="R7" t="n">
-        <v>0.12744173749726836</v>
+        <v>0.12761641657697947</v>
       </c>
       <c r="S7" t="n">
-        <v>0.11235920242421685</v>
+        <v>0.11231368966347402</v>
       </c>
       <c r="T7" t="n">
-        <v>0.1200672354350456</v>
+        <v>0.12009756281689278</v>
       </c>
       <c r="U7" t="n">
-        <v>0.05617918973131591</v>
+        <v>0.05617996612779553</v>
       </c>
       <c r="V7" t="n">
-        <v>0.057785053499223665</v>
+        <v>0.05782745907899716</v>
       </c>
       <c r="W7" t="n">
-        <v>-0.021062041947654517</v>
+        <v>-0.020568602552664877</v>
       </c>
       <c r="X7" t="n">
-        <v>-0.01743171977347412</v>
+        <v>-0.0169998302752807</v>
       </c>
       <c r="Y7" t="n">
-        <v>0.07948336390242786</v>
+        <v>0.07937092269341771</v>
       </c>
       <c r="Z7" t="n">
-        <v>-0.11368666816695482</v>
+        <v>-0.11428132838583253</v>
       </c>
     </row>
     <row r="8">
@@ -700,46 +700,46 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>0.8237211415329279</v>
+        <v>0.8238722432873298</v>
       </c>
       <c r="C8" t="n">
-        <v>0.1982605937323838</v>
+        <v>0.19826409057912206</v>
       </c>
       <c r="D8" t="n">
-        <v>0.6570893948155517</v>
+        <v>0.657093862146251</v>
       </c>
       <c r="E8" t="n">
-        <v>-0.013132440524073117</v>
+        <v>-0.013194352158107369</v>
       </c>
       <c r="F8" t="n">
-        <v>0.0454961629056106</v>
+        <v>0.04575470388653489</v>
       </c>
       <c r="G8" t="n">
-        <v>0.06664631414703481</v>
+        <v>0.0670075874710362</v>
       </c>
       <c r="H8" t="n">
         <v>1.0</v>
       </c>
       <c r="I8" t="n">
-        <v>0.6242633702929983</v>
+        <v>0.6110722975305887</v>
       </c>
       <c r="J8" t="n">
-        <v>0.836967357607809</v>
+        <v>0.8373103033386963</v>
       </c>
       <c r="K8" t="n">
-        <v>-0.4319273539145221</v>
+        <v>-0.4321739688692924</v>
       </c>
       <c r="L8" t="n">
-        <v>0.17143304881428575</v>
+        <v>0.17127416345469104</v>
       </c>
       <c r="M8" t="n">
         <v>0.014076587996664494</v>
       </c>
       <c r="N8" t="n">
-        <v>0.37223735665543617</v>
+        <v>0.37186633106692785</v>
       </c>
       <c r="O8" t="n">
-        <v>-0.020672573442085795</v>
+        <v>-0.02088145987633856</v>
       </c>
       <c r="P8" t="n">
         <v>0.8296204522561029</v>
@@ -780,79 +780,79 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>0.7459794421347599</v>
+        <v>0.7349644893289486</v>
       </c>
       <c r="C9" t="n">
-        <v>0.08902875659926299</v>
+        <v>0.08475633843868018</v>
       </c>
       <c r="D9" t="n">
-        <v>0.20587040369582152</v>
+        <v>0.18767579623297218</v>
       </c>
       <c r="E9" t="n">
-        <v>-0.07500272215025765</v>
+        <v>-0.07021553936951251</v>
       </c>
       <c r="F9" t="n">
-        <v>0.06576770535828537</v>
+        <v>0.0696284899091743</v>
       </c>
       <c r="G9" t="n">
-        <v>0.1006864647507649</v>
+        <v>0.10193246633025822</v>
       </c>
       <c r="H9" t="n">
-        <v>0.6242633702929983</v>
+        <v>0.6110722975305887</v>
       </c>
       <c r="I9" t="n">
         <v>1.0</v>
       </c>
       <c r="J9" t="n">
-        <v>0.6737489795500666</v>
+        <v>0.6633924528691536</v>
       </c>
       <c r="K9" t="n">
-        <v>-0.1291457319186842</v>
+        <v>-0.11701146358484438</v>
       </c>
       <c r="L9" t="n">
-        <v>0.0978437896454258</v>
+        <v>0.10046434382668716</v>
       </c>
       <c r="M9" t="n">
-        <v>0.034949587403975114</v>
+        <v>0.03945292759330184</v>
       </c>
       <c r="N9" t="n">
-        <v>0.2420748834004012</v>
+        <v>0.22773554027698933</v>
       </c>
       <c r="O9" t="n">
-        <v>0.22453758562052328</v>
+        <v>0.2218534540498559</v>
       </c>
       <c r="P9" t="n">
-        <v>0.5620933661600227</v>
+        <v>0.5467331046847627</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.217728227090361</v>
+        <v>0.20085113283529385</v>
       </c>
       <c r="R9" t="n">
-        <v>0.4348375118587256</v>
+        <v>0.4206715471262043</v>
       </c>
       <c r="S9" t="n">
-        <v>0.557814202872538</v>
+        <v>0.5425080105807821</v>
       </c>
       <c r="T9" t="n">
-        <v>0.5505474689652798</v>
+        <v>0.5365834768646789</v>
       </c>
       <c r="U9" t="n">
-        <v>0.5921672646776562</v>
+        <v>0.5809706791059193</v>
       </c>
       <c r="V9" t="n">
-        <v>0.28948453663749796</v>
+        <v>0.28412005611371377</v>
       </c>
       <c r="W9" t="n">
-        <v>-0.1706775204438243</v>
+        <v>-0.17330317079879684</v>
       </c>
       <c r="X9" t="n">
-        <v>0.01138195600611876</v>
+        <v>0.022711735795511532</v>
       </c>
       <c r="Y9" t="n">
-        <v>0.15724953896708527</v>
+        <v>0.15882379646701883</v>
       </c>
       <c r="Z9" t="n">
-        <v>-0.38486318284748083</v>
+        <v>-0.3704353355022719</v>
       </c>
     </row>
     <row r="10">
@@ -860,79 +860,79 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>0.9114327109620018</v>
+        <v>0.9115736614095262</v>
       </c>
       <c r="C10" t="n">
-        <v>0.1601325282375235</v>
+        <v>0.16015669423347648</v>
       </c>
       <c r="D10" t="n">
-        <v>0.47270212152273505</v>
+        <v>0.4726839840318307</v>
       </c>
       <c r="E10" t="n">
-        <v>-0.1742919145529678</v>
+        <v>-0.1744868333341813</v>
       </c>
       <c r="F10" t="n">
-        <v>0.056910222290631224</v>
+        <v>0.056843524935888824</v>
       </c>
       <c r="G10" t="n">
-        <v>0.08880013459744195</v>
+        <v>0.08870496606743415</v>
       </c>
       <c r="H10" t="n">
-        <v>0.836967357607809</v>
+        <v>0.8373103033386963</v>
       </c>
       <c r="I10" t="n">
-        <v>0.6737489795500666</v>
+        <v>0.6633924528691536</v>
       </c>
       <c r="J10" t="n">
         <v>1.0</v>
       </c>
       <c r="K10" t="n">
-        <v>-0.29432912263829125</v>
+        <v>-0.29423315248022763</v>
       </c>
       <c r="L10" t="n">
-        <v>0.11581125784771791</v>
+        <v>0.11577431062799072</v>
       </c>
       <c r="M10" t="n">
-        <v>0.044454707390965104</v>
+        <v>0.04433122975022115</v>
       </c>
       <c r="N10" t="n">
-        <v>0.2976714813497182</v>
+        <v>0.2969498307461992</v>
       </c>
       <c r="O10" t="n">
-        <v>0.09063059518938278</v>
+        <v>0.0908379373418088</v>
       </c>
       <c r="P10" t="n">
-        <v>0.7868685993535798</v>
+        <v>0.7871960121598922</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.5226360704503551</v>
+        <v>0.522626064001739</v>
       </c>
       <c r="R10" t="n">
-        <v>0.7062895591238477</v>
+        <v>0.7063770716666301</v>
       </c>
       <c r="S10" t="n">
-        <v>0.8136831352977587</v>
+        <v>0.8138186876058502</v>
       </c>
       <c r="T10" t="n">
-        <v>0.6906067004997695</v>
+        <v>0.6906421227490411</v>
       </c>
       <c r="U10" t="n">
-        <v>0.8152201184667021</v>
+        <v>0.8153883006279398</v>
       </c>
       <c r="V10" t="n">
-        <v>0.33710008170718886</v>
+        <v>0.3369805379030569</v>
       </c>
       <c r="W10" t="n">
-        <v>-0.0953149705146236</v>
+        <v>-0.09522344759233677</v>
       </c>
       <c r="X10" t="n">
-        <v>-0.12790090418819364</v>
+        <v>-0.12749098654605362</v>
       </c>
       <c r="Y10" t="n">
-        <v>0.15388177507481302</v>
+        <v>0.153620581343591</v>
       </c>
       <c r="Z10" t="n">
-        <v>-0.3691922648541773</v>
+        <v>-0.3694442735640953</v>
       </c>
     </row>
     <row r="11">
@@ -940,79 +940,79 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>-0.2527398442423127</v>
+        <v>-0.25273429981618145</v>
       </c>
       <c r="C11" t="n">
-        <v>-0.24777560479207827</v>
+        <v>-0.24757342733345372</v>
       </c>
       <c r="D11" t="n">
-        <v>-0.5897679635994698</v>
+        <v>-0.5895197979131472</v>
       </c>
       <c r="E11" t="n">
-        <v>-0.1171343471817348</v>
+        <v>-0.11713835008223378</v>
       </c>
       <c r="F11" t="n">
-        <v>0.014803255610963338</v>
+        <v>0.014816858874386139</v>
       </c>
       <c r="G11" t="n">
-        <v>-0.20517343823482348</v>
+        <v>-0.20515886606481024</v>
       </c>
       <c r="H11" t="n">
-        <v>-0.4319273539145221</v>
+        <v>-0.4321739688692924</v>
       </c>
       <c r="I11" t="n">
-        <v>-0.1291457319186842</v>
+        <v>-0.11701146358484438</v>
       </c>
       <c r="J11" t="n">
-        <v>-0.29432912263829125</v>
+        <v>-0.29423315248022763</v>
       </c>
       <c r="K11" t="n">
         <v>1.0</v>
       </c>
       <c r="L11" t="n">
-        <v>0.03333950320005295</v>
+        <v>0.0333315323015619</v>
       </c>
       <c r="M11" t="n">
-        <v>0.02827258846651875</v>
+        <v>0.028357411615512088</v>
       </c>
       <c r="N11" t="n">
-        <v>-0.3260964813841379</v>
+        <v>-0.32596388213514016</v>
       </c>
       <c r="O11" t="n">
-        <v>0.06212607020594785</v>
+        <v>0.0621159130653381</v>
       </c>
       <c r="P11" t="n">
-        <v>-0.4354987366052451</v>
+        <v>-0.4355749338179919</v>
       </c>
       <c r="Q11" t="n">
-        <v>-0.5937331659733647</v>
+        <v>-0.5936299297640572</v>
       </c>
       <c r="R11" t="n">
-        <v>-0.4967531896408344</v>
+        <v>-0.49687336223806877</v>
       </c>
       <c r="S11" t="n">
-        <v>-0.43859750377546564</v>
+        <v>-0.4385684268984241</v>
       </c>
       <c r="T11" t="n">
-        <v>-0.41094688554658454</v>
+        <v>-0.4109688889727198</v>
       </c>
       <c r="U11" t="n">
-        <v>-0.41161743425799774</v>
+        <v>-0.4116200398367892</v>
       </c>
       <c r="V11" t="n">
-        <v>-0.37846541939096806</v>
+        <v>-0.37849597407804314</v>
       </c>
       <c r="W11" t="n">
-        <v>-0.2088144198274814</v>
+        <v>-0.20914989074688217</v>
       </c>
       <c r="X11" t="n">
-        <v>0.4945456912908103</v>
+        <v>0.4942563626777176</v>
       </c>
       <c r="Y11" t="n">
-        <v>-0.3244142009779126</v>
+        <v>-0.3243394126696966</v>
       </c>
       <c r="Z11" t="n">
-        <v>0.29130401220609264</v>
+        <v>0.29170724964529177</v>
       </c>
     </row>
     <row r="12">
@@ -1020,79 +1020,79 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>0.08551689243117366</v>
+        <v>0.0855223849805489</v>
       </c>
       <c r="C12" t="n">
-        <v>-0.0139819714733911</v>
+        <v>-0.014011475909318123</v>
       </c>
       <c r="D12" t="n">
-        <v>0.19923865292703524</v>
+        <v>0.1992782685888592</v>
       </c>
       <c r="E12" t="n">
-        <v>0.08090236574063256</v>
+        <v>0.08090051761098734</v>
       </c>
       <c r="F12" t="n">
-        <v>9.135500867619533E-6</v>
+        <v>1.789392745322501E-5</v>
       </c>
       <c r="G12" t="n">
-        <v>-0.08852019947834908</v>
+        <v>-0.08850943948929031</v>
       </c>
       <c r="H12" t="n">
-        <v>0.17143304881428575</v>
+        <v>0.17127416345469104</v>
       </c>
       <c r="I12" t="n">
-        <v>0.0978437896454258</v>
+        <v>0.10046434382668716</v>
       </c>
       <c r="J12" t="n">
-        <v>0.11581125784771791</v>
+        <v>0.11577431062799072</v>
       </c>
       <c r="K12" t="n">
-        <v>0.03333950320005295</v>
+        <v>0.0333315323015619</v>
       </c>
       <c r="L12" t="n">
         <v>1.0</v>
       </c>
       <c r="M12" t="n">
-        <v>0.0052816412666317845</v>
+        <v>0.005336960978849341</v>
       </c>
       <c r="N12" t="n">
-        <v>-0.12144019907718483</v>
+        <v>-0.12151970782931802</v>
       </c>
       <c r="O12" t="n">
-        <v>-0.11359891709598549</v>
+        <v>-0.11360683297208773</v>
       </c>
       <c r="P12" t="n">
-        <v>0.12661306609578202</v>
+        <v>0.12656542318608524</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.16635682569770288</v>
+        <v>0.1664271841834162</v>
       </c>
       <c r="R12" t="n">
-        <v>0.0853107254045437</v>
+        <v>0.08523449126640081</v>
       </c>
       <c r="S12" t="n">
-        <v>0.17448381406021057</v>
+        <v>0.1745050980949839</v>
       </c>
       <c r="T12" t="n">
-        <v>0.06762778241862603</v>
+        <v>0.06761528809530261</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1765163019025454</v>
+        <v>0.1765167789235841</v>
       </c>
       <c r="V12" t="n">
-        <v>0.15065951596736848</v>
+        <v>0.1506415244011129</v>
       </c>
       <c r="W12" t="n">
-        <v>0.1054230402401797</v>
+        <v>0.10520499633194716</v>
       </c>
       <c r="X12" t="n">
-        <v>-0.29939883880357515</v>
+        <v>-0.29959073701167027</v>
       </c>
       <c r="Y12" t="n">
-        <v>0.05280640691096568</v>
+        <v>0.052856757131522276</v>
       </c>
       <c r="Z12" t="n">
-        <v>-0.14986151306724793</v>
+        <v>-0.14959965263942152</v>
       </c>
     </row>
     <row r="13">
@@ -1100,46 +1100,46 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>0.0751234618883194</v>
+        <v>0.07507187345534551</v>
       </c>
       <c r="C13" t="n">
-        <v>0.5539810099962037</v>
+        <v>0.5539502635758272</v>
       </c>
       <c r="D13" t="n">
-        <v>-0.05460032427072144</v>
+        <v>-0.054627650722051606</v>
       </c>
       <c r="E13" t="n">
-        <v>-0.013623116398655327</v>
+        <v>-0.013601636024778029</v>
       </c>
       <c r="F13" t="n">
-        <v>0.9747191733791062</v>
+        <v>0.9746364699624246</v>
       </c>
       <c r="G13" t="n">
-        <v>0.43572194558673766</v>
+        <v>0.4356028991112492</v>
       </c>
       <c r="H13" t="n">
         <v>0.014076587996664494</v>
       </c>
       <c r="I13" t="n">
-        <v>0.034949587403975114</v>
+        <v>0.03945292759330184</v>
       </c>
       <c r="J13" t="n">
-        <v>0.044454707390965104</v>
+        <v>0.04433122975022115</v>
       </c>
       <c r="K13" t="n">
-        <v>0.02827258846651875</v>
+        <v>0.028357411615512088</v>
       </c>
       <c r="L13" t="n">
-        <v>0.0052816412666317845</v>
+        <v>0.005336960978849341</v>
       </c>
       <c r="M13" t="n">
         <v>1.0</v>
       </c>
       <c r="N13" t="n">
-        <v>9.7429601054236E-4</v>
+        <v>8.16606447336251E-4</v>
       </c>
       <c r="O13" t="n">
-        <v>-0.07013515247935949</v>
+        <v>-0.07006301254917342</v>
       </c>
       <c r="P13" t="n">
         <v>-0.0341622270864396</v>
@@ -1180,79 +1180,79 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>0.26586382609855896</v>
+        <v>0.2649912355622293</v>
       </c>
       <c r="C14" t="n">
-        <v>0.15895011606891815</v>
+        <v>0.15881967741018185</v>
       </c>
       <c r="D14" t="n">
-        <v>0.3915422837763535</v>
+        <v>0.3912074068938742</v>
       </c>
       <c r="E14" t="n">
-        <v>0.17037158421769297</v>
+        <v>0.17068435440825117</v>
       </c>
       <c r="F14" t="n">
-        <v>0.02853304168495199</v>
+        <v>0.028450170906007804</v>
       </c>
       <c r="G14" t="n">
-        <v>0.13307753579321777</v>
+        <v>0.13303258518752728</v>
       </c>
       <c r="H14" t="n">
-        <v>0.37223735665543617</v>
+        <v>0.37186633106692785</v>
       </c>
       <c r="I14" t="n">
-        <v>0.2420748834004012</v>
+        <v>0.22773554027698933</v>
       </c>
       <c r="J14" t="n">
-        <v>0.2976714813497182</v>
+        <v>0.2969498307461992</v>
       </c>
       <c r="K14" t="n">
-        <v>-0.3260964813841379</v>
+        <v>-0.32596388213514016</v>
       </c>
       <c r="L14" t="n">
-        <v>-0.12144019907718483</v>
+        <v>-0.12151970782931802</v>
       </c>
       <c r="M14" t="n">
-        <v>9.7429601054236E-4</v>
+        <v>8.16606447336251E-4</v>
       </c>
       <c r="N14" t="n">
         <v>1.0</v>
       </c>
       <c r="O14" t="n">
-        <v>0.017474621147214018</v>
+        <v>0.017761068677049793</v>
       </c>
       <c r="P14" t="n">
-        <v>0.5239784542532273</v>
+        <v>0.5235550406041395</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.5082124535165571</v>
+        <v>0.5076338188225815</v>
       </c>
       <c r="R14" t="n">
-        <v>0.4183422856808661</v>
+        <v>0.4178839925276908</v>
       </c>
       <c r="S14" t="n">
-        <v>0.46812261791163706</v>
+        <v>0.4680960322291072</v>
       </c>
       <c r="T14" t="n">
-        <v>0.4613180674205351</v>
+        <v>0.46075230487427</v>
       </c>
       <c r="U14" t="n">
-        <v>0.38593547187356164</v>
+        <v>0.38547552005999597</v>
       </c>
       <c r="V14" t="n">
-        <v>0.19825615345223147</v>
+        <v>0.19753563386839837</v>
       </c>
       <c r="W14" t="n">
-        <v>-0.1510720968571224</v>
+        <v>-0.15072958826214836</v>
       </c>
       <c r="X14" t="n">
-        <v>-0.09866943994796974</v>
+        <v>-0.09833910460958849</v>
       </c>
       <c r="Y14" t="n">
-        <v>0.1114056294927507</v>
+        <v>0.11105607610764806</v>
       </c>
       <c r="Z14" t="n">
-        <v>-0.37858106422176047</v>
+        <v>-0.37823939841170795</v>
       </c>
     </row>
     <row r="15">
@@ -1260,79 +1260,79 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>0.09897341363034219</v>
+        <v>0.09898073580391141</v>
       </c>
       <c r="C15" t="n">
-        <v>-0.08062579327619145</v>
+        <v>-0.08067872575838148</v>
       </c>
       <c r="D15" t="n">
-        <v>-0.13325727258254347</v>
+        <v>-0.1332189519573308</v>
       </c>
       <c r="E15" t="n">
-        <v>-0.5241428156756738</v>
+        <v>-0.5241482125171177</v>
       </c>
       <c r="F15" t="n">
-        <v>-0.08188147165182905</v>
+        <v>-0.08187095677069421</v>
       </c>
       <c r="G15" t="n">
-        <v>-0.04451527880605521</v>
+        <v>-0.04450008562798925</v>
       </c>
       <c r="H15" t="n">
-        <v>-0.020672573442085795</v>
+        <v>-0.02088145987633856</v>
       </c>
       <c r="I15" t="n">
-        <v>0.22453758562052328</v>
+        <v>0.2218534540498559</v>
       </c>
       <c r="J15" t="n">
-        <v>0.09063059518938278</v>
+        <v>0.0908379373418088</v>
       </c>
       <c r="K15" t="n">
-        <v>0.06212607020594785</v>
+        <v>0.0621159130653381</v>
       </c>
       <c r="L15" t="n">
-        <v>-0.11359891709598549</v>
+        <v>-0.11360683297208773</v>
       </c>
       <c r="M15" t="n">
-        <v>-0.07013515247935949</v>
+        <v>-0.07006301254917342</v>
       </c>
       <c r="N15" t="n">
-        <v>0.017474621147214018</v>
+        <v>0.017761068677049793</v>
       </c>
       <c r="O15" t="n">
         <v>1.0</v>
       </c>
       <c r="P15" t="n">
-        <v>0.046733000279357485</v>
+        <v>0.04667034346725342</v>
       </c>
       <c r="Q15" t="n">
-        <v>-0.04753440127862168</v>
+        <v>-0.04744302191693503</v>
       </c>
       <c r="R15" t="n">
-        <v>-0.19477545296960982</v>
+        <v>-0.19487654639555677</v>
       </c>
       <c r="S15" t="n">
-        <v>0.06129383731875354</v>
+        <v>0.06132139179938568</v>
       </c>
       <c r="T15" t="n">
-        <v>-0.053933561417596095</v>
+        <v>-0.053950422107609544</v>
       </c>
       <c r="U15" t="n">
-        <v>-0.062342319600954044</v>
+        <v>-0.062342608842098114</v>
       </c>
       <c r="V15" t="n">
-        <v>-0.3204279308536053</v>
+        <v>-0.3204535248684406</v>
       </c>
       <c r="W15" t="n">
-        <v>-0.3548057114006418</v>
+        <v>-0.3550934282905189</v>
       </c>
       <c r="X15" t="n">
-        <v>0.09026284619178242</v>
+        <v>0.09001288571804851</v>
       </c>
       <c r="Y15" t="n">
-        <v>-0.30403301692223256</v>
+        <v>-0.3039686418570449</v>
       </c>
       <c r="Z15" t="n">
-        <v>0.10908617659839087</v>
+        <v>0.10943032249395479</v>
       </c>
     </row>
     <row r="16">
@@ -1340,46 +1340,46 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>0.7198610212217741</v>
+        <v>0.7199076399549454</v>
       </c>
       <c r="C16" t="n">
-        <v>0.2031807598329241</v>
+        <v>0.20296257443487184</v>
       </c>
       <c r="D16" t="n">
-        <v>0.6921545062746607</v>
+        <v>0.6919856593643237</v>
       </c>
       <c r="E16" t="n">
-        <v>0.044709836550658306</v>
+        <v>0.04469121278830977</v>
       </c>
       <c r="F16" t="n">
-        <v>-0.0017485067017838243</v>
+        <v>-0.0016707612131358106</v>
       </c>
       <c r="G16" t="n">
-        <v>0.07255068960238202</v>
+        <v>0.07266020606940225</v>
       </c>
       <c r="H16" t="n">
         <v>0.8296204522561029</v>
       </c>
       <c r="I16" t="n">
-        <v>0.5620933661600227</v>
+        <v>0.5467331046847627</v>
       </c>
       <c r="J16" t="n">
-        <v>0.7868685993535798</v>
+        <v>0.7871960121598922</v>
       </c>
       <c r="K16" t="n">
-        <v>-0.4354987366052451</v>
+        <v>-0.4355749338179919</v>
       </c>
       <c r="L16" t="n">
-        <v>0.12661306609578202</v>
+        <v>0.12656542318608524</v>
       </c>
       <c r="M16" t="n">
         <v>-0.0341622270864396</v>
       </c>
       <c r="N16" t="n">
-        <v>0.5239784542532273</v>
+        <v>0.5235550406041395</v>
       </c>
       <c r="O16" t="n">
-        <v>0.046733000279357485</v>
+        <v>0.04667034346725342</v>
       </c>
       <c r="P16" t="n">
         <v>1.0</v>
@@ -1420,46 +1420,46 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>0.41847481104010875</v>
+        <v>0.41841036656617514</v>
       </c>
       <c r="C17" t="n">
-        <v>0.2199599112020001</v>
+        <v>0.21955187010836053</v>
       </c>
       <c r="D17" t="n">
-        <v>0.8212436345063915</v>
+        <v>0.8209267117920817</v>
       </c>
       <c r="E17" t="n">
-        <v>0.17393718701820604</v>
+        <v>0.17396441728389117</v>
       </c>
       <c r="F17" t="n">
-        <v>-0.020753365996418218</v>
+        <v>-0.02086679788706595</v>
       </c>
       <c r="G17" t="n">
-        <v>0.021094968429770673</v>
+        <v>0.02093716738284558</v>
       </c>
       <c r="H17" t="n">
         <v>0.6692070327662389</v>
       </c>
       <c r="I17" t="n">
-        <v>0.217728227090361</v>
+        <v>0.20085113283529385</v>
       </c>
       <c r="J17" t="n">
-        <v>0.5226360704503551</v>
+        <v>0.522626064001739</v>
       </c>
       <c r="K17" t="n">
-        <v>-0.5937331659733647</v>
+        <v>-0.5936299297640572</v>
       </c>
       <c r="L17" t="n">
-        <v>0.16635682569770288</v>
+        <v>0.1664271841834162</v>
       </c>
       <c r="M17" t="n">
         <v>-0.03884806373697036</v>
       </c>
       <c r="N17" t="n">
-        <v>0.5082124535165571</v>
+        <v>0.5076338188225815</v>
       </c>
       <c r="O17" t="n">
-        <v>-0.04753440127862168</v>
+        <v>-0.04744302191693503</v>
       </c>
       <c r="P17" t="n">
         <v>0.7326700818706109</v>
@@ -1500,46 +1500,46 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>0.668885338760564</v>
+        <v>0.6689584939287695</v>
       </c>
       <c r="C18" t="n">
-        <v>0.19239018610836975</v>
+        <v>0.1922578398223046</v>
       </c>
       <c r="D18" t="n">
-        <v>0.7409913728125943</v>
+        <v>0.7408899525340866</v>
       </c>
       <c r="E18" t="n">
-        <v>0.0991928950249189</v>
+        <v>0.09916322927525269</v>
       </c>
       <c r="F18" t="n">
-        <v>-0.031142691689961102</v>
+        <v>-0.03101900471251593</v>
       </c>
       <c r="G18" t="n">
-        <v>0.12744173749726836</v>
+        <v>0.12761641657697947</v>
       </c>
       <c r="H18" t="n">
         <v>0.7891533711517214</v>
       </c>
       <c r="I18" t="n">
-        <v>0.4348375118587256</v>
+        <v>0.4206715471262043</v>
       </c>
       <c r="J18" t="n">
-        <v>0.7062895591238477</v>
+        <v>0.7063770716666301</v>
       </c>
       <c r="K18" t="n">
-        <v>-0.4967531896408344</v>
+        <v>-0.49687336223806877</v>
       </c>
       <c r="L18" t="n">
-        <v>0.0853107254045437</v>
+        <v>0.08523449126640081</v>
       </c>
       <c r="M18" t="n">
         <v>-0.06196215844947839</v>
       </c>
       <c r="N18" t="n">
-        <v>0.4183422856808661</v>
+        <v>0.4178839925276908</v>
       </c>
       <c r="O18" t="n">
-        <v>-0.19477545296960982</v>
+        <v>-0.19487654639555677</v>
       </c>
       <c r="P18" t="n">
         <v>0.8163636092768212</v>
@@ -1580,46 +1580,46 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>0.7609142390384921</v>
+        <v>0.7608965599327245</v>
       </c>
       <c r="C19" t="n">
-        <v>0.21095931666232537</v>
+        <v>0.2103514687794412</v>
       </c>
       <c r="D19" t="n">
-        <v>0.7409620516894665</v>
+        <v>0.7404885110111071</v>
       </c>
       <c r="E19" t="n">
-        <v>0.012673818616274783</v>
+        <v>0.012681909356761818</v>
       </c>
       <c r="F19" t="n">
-        <v>0.00437375208185223</v>
+        <v>0.004340057281572</v>
       </c>
       <c r="G19" t="n">
-        <v>0.11235920242421685</v>
+        <v>0.11231368966347402</v>
       </c>
       <c r="H19" t="n">
         <v>0.8600057019398789</v>
       </c>
       <c r="I19" t="n">
-        <v>0.557814202872538</v>
+        <v>0.5425080105807821</v>
       </c>
       <c r="J19" t="n">
-        <v>0.8136831352977587</v>
+        <v>0.8138186876058502</v>
       </c>
       <c r="K19" t="n">
-        <v>-0.43859750377546564</v>
+        <v>-0.4385684268984241</v>
       </c>
       <c r="L19" t="n">
-        <v>0.17448381406021057</v>
+        <v>0.1745050980949839</v>
       </c>
       <c r="M19" t="n">
         <v>-0.022261997797862573</v>
       </c>
       <c r="N19" t="n">
-        <v>0.46812261791163706</v>
+        <v>0.4680960322291072</v>
       </c>
       <c r="O19" t="n">
-        <v>0.06129383731875354</v>
+        <v>0.06132139179938568</v>
       </c>
       <c r="P19" t="n">
         <v>0.9219399027824564</v>
@@ -1660,46 +1660,46 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>0.663057849236512</v>
+        <v>0.6630712849446293</v>
       </c>
       <c r="C20" t="n">
-        <v>0.1309667387525537</v>
+        <v>0.1312054356926036</v>
       </c>
       <c r="D20" t="n">
-        <v>0.5303744040775561</v>
+        <v>0.5305627104623677</v>
       </c>
       <c r="E20" t="n">
-        <v>0.03471180636901893</v>
+        <v>0.0347068955340546</v>
       </c>
       <c r="F20" t="n">
-        <v>-0.05523631691413752</v>
+        <v>-0.055216166178182945</v>
       </c>
       <c r="G20" t="n">
-        <v>0.1200672354350456</v>
+        <v>0.12009756281689278</v>
       </c>
       <c r="H20" t="n">
         <v>0.6925847829486167</v>
       </c>
       <c r="I20" t="n">
-        <v>0.5505474689652798</v>
+        <v>0.5365834768646789</v>
       </c>
       <c r="J20" t="n">
-        <v>0.6906067004997695</v>
+        <v>0.6906421227490411</v>
       </c>
       <c r="K20" t="n">
-        <v>-0.41094688554658454</v>
+        <v>-0.4109688889727198</v>
       </c>
       <c r="L20" t="n">
-        <v>0.06762778241862603</v>
+        <v>0.06761528809530261</v>
       </c>
       <c r="M20" t="n">
         <v>-0.0928608437095917</v>
       </c>
       <c r="N20" t="n">
-        <v>0.4613180674205351</v>
+        <v>0.46075230487427</v>
       </c>
       <c r="O20" t="n">
-        <v>-0.053933561417596095</v>
+        <v>-0.053950422107609544</v>
       </c>
       <c r="P20" t="n">
         <v>0.7328636168398585</v>
@@ -1740,46 +1740,46 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>0.8029844314142588</v>
+        <v>0.8029863325731461</v>
       </c>
       <c r="C21" t="n">
-        <v>0.17682338925906219</v>
+        <v>0.17689659643524452</v>
       </c>
       <c r="D21" t="n">
-        <v>0.6175461410074543</v>
+        <v>0.6176050955657476</v>
       </c>
       <c r="E21" t="n">
-        <v>-0.01738219990941913</v>
+        <v>-0.017382206999163766</v>
       </c>
       <c r="F21" t="n">
-        <v>0.04158958280799752</v>
+        <v>0.04158987793778277</v>
       </c>
       <c r="G21" t="n">
-        <v>0.05617918973131591</v>
+        <v>0.05617996612779553</v>
       </c>
       <c r="H21" t="n">
         <v>0.9675746001702192</v>
       </c>
       <c r="I21" t="n">
-        <v>0.5921672646776562</v>
+        <v>0.5809706791059193</v>
       </c>
       <c r="J21" t="n">
-        <v>0.8152201184667021</v>
+        <v>0.8153883006279398</v>
       </c>
       <c r="K21" t="n">
-        <v>-0.41161743425799774</v>
+        <v>-0.4116200398367892</v>
       </c>
       <c r="L21" t="n">
-        <v>0.1765163019025454</v>
+        <v>0.1765167789235841</v>
       </c>
       <c r="M21" t="n">
         <v>0.0074615245624678845</v>
       </c>
       <c r="N21" t="n">
-        <v>0.38593547187356164</v>
+        <v>0.38547552005999597</v>
       </c>
       <c r="O21" t="n">
-        <v>-0.062342319600954044</v>
+        <v>-0.062342608842098114</v>
       </c>
       <c r="P21" t="n">
         <v>0.7976595088675659</v>
@@ -1820,46 +1820,46 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>0.2861588638797394</v>
+        <v>0.28617676272289555</v>
       </c>
       <c r="C22" t="n">
-        <v>0.12397720396687362</v>
+        <v>0.12342536375189614</v>
       </c>
       <c r="D22" t="n">
-        <v>0.4286734730575572</v>
+        <v>0.4282428885074724</v>
       </c>
       <c r="E22" t="n">
-        <v>0.31974103199419707</v>
+        <v>0.3197340145862147</v>
       </c>
       <c r="F22" t="n">
-        <v>0.11344960320315912</v>
+        <v>0.11348022264803917</v>
       </c>
       <c r="G22" t="n">
-        <v>0.057785053499223665</v>
+        <v>0.05782745907899716</v>
       </c>
       <c r="H22" t="n">
         <v>0.3892021557968771</v>
       </c>
       <c r="I22" t="n">
-        <v>0.28948453663749796</v>
+        <v>0.28412005611371377</v>
       </c>
       <c r="J22" t="n">
-        <v>0.33710008170718886</v>
+        <v>0.3369805379030569</v>
       </c>
       <c r="K22" t="n">
-        <v>-0.37846541939096806</v>
+        <v>-0.37849597407804314</v>
       </c>
       <c r="L22" t="n">
-        <v>0.15065951596736848</v>
+        <v>0.1506415244011129</v>
       </c>
       <c r="M22" t="n">
         <v>0.09747728448388304</v>
       </c>
       <c r="N22" t="n">
-        <v>0.19825615345223147</v>
+        <v>0.19753563386839837</v>
       </c>
       <c r="O22" t="n">
-        <v>-0.3204279308536053</v>
+        <v>-0.3204535248684406</v>
       </c>
       <c r="P22" t="n">
         <v>0.4096539265219658</v>
@@ -1900,46 +1900,46 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>-0.08479198617028212</v>
+        <v>-0.08458782956211898</v>
       </c>
       <c r="C23" t="n">
-        <v>0.030130653466924312</v>
+        <v>0.030121489048508535</v>
       </c>
       <c r="D23" t="n">
-        <v>0.22525180084370286</v>
+        <v>0.22524543185423943</v>
       </c>
       <c r="E23" t="n">
-        <v>0.21196029937779365</v>
+        <v>0.21187556600841595</v>
       </c>
       <c r="F23" t="n">
-        <v>-0.03993830086440237</v>
+        <v>-0.03958479114431451</v>
       </c>
       <c r="G23" t="n">
-        <v>-0.021062041947654517</v>
+        <v>-0.020568602552664877</v>
       </c>
       <c r="H23" t="n">
         <v>0.014091803911765958</v>
       </c>
       <c r="I23" t="n">
-        <v>-0.1706775204438243</v>
+        <v>-0.17330317079879684</v>
       </c>
       <c r="J23" t="n">
-        <v>-0.0953149705146236</v>
+        <v>-0.09522344759233677</v>
       </c>
       <c r="K23" t="n">
-        <v>-0.2088144198274814</v>
+        <v>-0.20914989074688217</v>
       </c>
       <c r="L23" t="n">
-        <v>0.1054230402401797</v>
+        <v>0.10520499633194716</v>
       </c>
       <c r="M23" t="n">
         <v>-0.029348436638799567</v>
       </c>
       <c r="N23" t="n">
-        <v>-0.1510720968571224</v>
+        <v>-0.15072958826214836</v>
       </c>
       <c r="O23" t="n">
-        <v>-0.3548057114006418</v>
+        <v>-0.3550934282905189</v>
       </c>
       <c r="P23" t="n">
         <v>-0.06255645424593269</v>
@@ -1980,46 +1980,46 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>-0.07302379821679111</v>
+        <v>-0.07284511030367655</v>
       </c>
       <c r="C24" t="n">
-        <v>-0.08372123645505845</v>
+        <v>-0.08353010852171934</v>
       </c>
       <c r="D24" t="n">
-        <v>-0.6216668100703879</v>
+        <v>-0.6215194847103886</v>
       </c>
       <c r="E24" t="n">
-        <v>-0.09345381819554281</v>
+        <v>-0.09352809362705967</v>
       </c>
       <c r="F24" t="n">
-        <v>0.03003659867749984</v>
+        <v>0.0303464641101001</v>
       </c>
       <c r="G24" t="n">
-        <v>-0.01743171977347412</v>
+        <v>-0.0169998302752807</v>
       </c>
       <c r="H24" t="n">
         <v>-0.2801629473829435</v>
       </c>
       <c r="I24" t="n">
-        <v>0.01138195600611876</v>
+        <v>0.022711735795511532</v>
       </c>
       <c r="J24" t="n">
-        <v>-0.12790090418819364</v>
+        <v>-0.12749098654605362</v>
       </c>
       <c r="K24" t="n">
-        <v>0.4945456912908103</v>
+        <v>0.4942563626777176</v>
       </c>
       <c r="L24" t="n">
-        <v>-0.29939883880357515</v>
+        <v>-0.29959073701167027</v>
       </c>
       <c r="M24" t="n">
         <v>0.03727040232849405</v>
       </c>
       <c r="N24" t="n">
-        <v>-0.09866943994796974</v>
+        <v>-0.09833910460958849</v>
       </c>
       <c r="O24" t="n">
-        <v>0.09026284619178242</v>
+        <v>0.09001288571804851</v>
       </c>
       <c r="P24" t="n">
         <v>-0.23201804806442144</v>
@@ -2060,46 +2060,46 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>0.08460270207281333</v>
+        <v>0.08455590777682177</v>
       </c>
       <c r="C25" t="n">
-        <v>0.1317082009992733</v>
+        <v>0.13194355810060088</v>
       </c>
       <c r="D25" t="n">
-        <v>0.3541034212667023</v>
+        <v>0.35428835451686685</v>
       </c>
       <c r="E25" t="n">
-        <v>0.37100616318672514</v>
+        <v>0.3710258199189911</v>
       </c>
       <c r="F25" t="n">
-        <v>0.0262095765935437</v>
+        <v>0.026128403304239975</v>
       </c>
       <c r="G25" t="n">
-        <v>0.07948336390242786</v>
+        <v>0.07937092269341771</v>
       </c>
       <c r="H25" t="n">
         <v>0.2032319367615462</v>
       </c>
       <c r="I25" t="n">
-        <v>0.15724953896708527</v>
+        <v>0.15882379646701883</v>
       </c>
       <c r="J25" t="n">
-        <v>0.15388177507481302</v>
+        <v>0.153620581343591</v>
       </c>
       <c r="K25" t="n">
-        <v>-0.3244142009779126</v>
+        <v>-0.3243394126696966</v>
       </c>
       <c r="L25" t="n">
-        <v>0.05280640691096568</v>
+        <v>0.052856757131522276</v>
       </c>
       <c r="M25" t="n">
         <v>-4.5622569097599993E-4</v>
       </c>
       <c r="N25" t="n">
-        <v>0.1114056294927507</v>
+        <v>0.11105607610764806</v>
       </c>
       <c r="O25" t="n">
-        <v>-0.30403301692223256</v>
+        <v>-0.3039686418570449</v>
       </c>
       <c r="P25" t="n">
         <v>0.3060140067542387</v>
@@ -2140,46 +2140,46 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>-0.4008635492248569</v>
+        <v>-0.4011099806689772</v>
       </c>
       <c r="C26" t="n">
-        <v>-0.1287168867134051</v>
+        <v>-0.12854336852620524</v>
       </c>
       <c r="D26" t="n">
-        <v>-0.4040967295033378</v>
+        <v>-0.403962001583791</v>
       </c>
       <c r="E26" t="n">
-        <v>-0.13793065523989362</v>
+        <v>-0.13782882248723416</v>
       </c>
       <c r="F26" t="n">
-        <v>-0.086782795635118</v>
+        <v>-0.08720840212673289</v>
       </c>
       <c r="G26" t="n">
-        <v>-0.11368666816695482</v>
+        <v>-0.11428132838583253</v>
       </c>
       <c r="H26" t="n">
         <v>-0.4341566041716615</v>
       </c>
       <c r="I26" t="n">
-        <v>-0.38486318284748083</v>
+        <v>-0.3704353355022719</v>
       </c>
       <c r="J26" t="n">
-        <v>-0.3691922648541773</v>
+        <v>-0.3694442735640953</v>
       </c>
       <c r="K26" t="n">
-        <v>0.29130401220609264</v>
+        <v>0.29170724964529177</v>
       </c>
       <c r="L26" t="n">
-        <v>-0.14986151306724793</v>
+        <v>-0.14959965263942152</v>
       </c>
       <c r="M26" t="n">
         <v>-0.048271099327374126</v>
       </c>
       <c r="N26" t="n">
-        <v>-0.37858106422176047</v>
+        <v>-0.37823939841170795</v>
       </c>
       <c r="O26" t="n">
-        <v>0.10908617659839087</v>
+        <v>0.10943032249395479</v>
       </c>
       <c r="P26" t="n">
         <v>-0.4820619657939511</v>

--- a/docs/Correlacion.xlsx
+++ b/docs/Correlacion.xlsx
@@ -1,103 +1,106 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <workbookPr date1904="false"/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13125" windowHeight="6105" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" r:id="rId3" sheetId="1"/>
+    <sheet name="Sheet 1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
-    <t>electricity_access</t>
+    <t xml:space="preserve"/>
   </si>
   <si>
-    <t>gdp</t>
+    <t xml:space="preserve">electricity_access</t>
   </si>
   <si>
-    <t>gdp_capita</t>
+    <t xml:space="preserve">gdp</t>
   </si>
   <si>
-    <t>labor_rate</t>
+    <t xml:space="preserve">gdp_capita</t>
   </si>
   <si>
-    <t>labor_force</t>
+    <t xml:space="preserve">labor_rate</t>
   </si>
   <si>
-    <t>land_area</t>
+    <t xml:space="preserve">labor_force</t>
   </si>
   <si>
-    <t>life_expectancy</t>
+    <t xml:space="preserve">land_area</t>
   </si>
   <si>
-    <t>adult_literacy</t>
+    <t xml:space="preserve">life_expectancy</t>
   </si>
   <si>
-    <t>water_access</t>
+    <t xml:space="preserve">adult_literacy</t>
   </si>
   <si>
-    <t>air_pollution</t>
+    <t xml:space="preserve">water_access</t>
   </si>
   <si>
-    <t>population_density</t>
+    <t xml:space="preserve">air_pollution</t>
   </si>
   <si>
-    <t>population</t>
+    <t xml:space="preserve">population_density</t>
   </si>
   <si>
-    <t>alcohol_consumption</t>
+    <t xml:space="preserve">population</t>
   </si>
   <si>
-    <t>unemployment_rate</t>
+    <t xml:space="preserve">alcohol_consumption</t>
   </si>
   <si>
-    <t>income_class</t>
+    <t xml:space="preserve">unemployment_rate</t>
   </si>
   <si>
-    <t>cpi</t>
+    <t xml:space="preserve">income_class</t>
   </si>
   <si>
-    <t>life_ladder</t>
+    <t xml:space="preserve">cpi</t>
   </si>
   <si>
-    <t>log_gdp_per_capita</t>
+    <t xml:space="preserve">life_ladder</t>
   </si>
   <si>
-    <t>social_support</t>
+    <t xml:space="preserve">log_gdp_per_capita</t>
   </si>
   <si>
-    <t>healthy_life_expectancy_at_birth</t>
+    <t xml:space="preserve">social_support</t>
   </si>
   <si>
-    <t>freedom_to_make_life_choices</t>
+    <t xml:space="preserve">healthy_life_expectancy_at_birth</t>
   </si>
   <si>
-    <t>generosity</t>
+    <t xml:space="preserve">freedom_to_make_life_choices</t>
   </si>
   <si>
-    <t>perceptions_of_corruption</t>
+    <t xml:space="preserve">generosity</t>
   </si>
   <si>
-    <t>positive_affect</t>
+    <t xml:space="preserve">perceptions_of_corruption</t>
   </si>
   <si>
-    <t>negative_affect</t>
+    <t xml:space="preserve">positive_affect</t>
+  </si>
+  <si>
+    <t xml:space="preserve">negative_affect</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
   <fonts count="1">
     <font>
-      <sz val="11.0"/>
-      <color indexed="8"/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -108,7 +111,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="darkGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="1">
@@ -126,330 +129,613 @@
   <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  </cellStyles>
+  <dxfs count="0"/>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="1F497D"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="EEECE1"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4F81BD"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="C0504D"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="9BBB59"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="8064A2"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4BACC6"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="F79646"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0000FF"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="800080"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Cambria"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="phClr">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="1"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="80000">
+              <a:schemeClr val="phClr">
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="40000">
+              <a:schemeClr val="phClr">
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="true"/>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="true"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <sheetData>
     <row r="1">
-      <c r="A1"/>
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
       <c r="B1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="K1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="L1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="M1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="N1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="O1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="P1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="Q1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="R1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="S1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="T1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="U1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="V1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="W1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="X1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="Y1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="Z1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>0.15193166363410365</v>
+        <v>0.151931663634104</v>
       </c>
       <c r="D2" t="n">
-        <v>0.4024163631242274</v>
+        <v>0.402416363124227</v>
       </c>
       <c r="E2" t="n">
-        <v>-0.26136914956705654</v>
+        <v>-0.261369149567057</v>
       </c>
       <c r="F2" t="n">
-        <v>0.08567396187878927</v>
+        <v>0.0856739618787893</v>
       </c>
       <c r="G2" t="n">
         <v>0.0940530750326406</v>
       </c>
       <c r="H2" t="n">
-        <v>0.8238722432873298</v>
+        <v>0.82387224328733</v>
       </c>
       <c r="I2" t="n">
-        <v>0.7349644893289486</v>
+        <v>0.734964489328949</v>
       </c>
       <c r="J2" t="n">
-        <v>0.9115736614095262</v>
+        <v>0.911573661409526</v>
       </c>
       <c r="K2" t="n">
-        <v>-0.25273429981618145</v>
+        <v>-0.252734299816181</v>
       </c>
       <c r="L2" t="n">
         <v>0.0855223849805489</v>
       </c>
       <c r="M2" t="n">
-        <v>0.07507187345534551</v>
+        <v>0.0750718734553455</v>
       </c>
       <c r="N2" t="n">
-        <v>0.2649912355622293</v>
+        <v>0.264991235562229</v>
       </c>
       <c r="O2" t="n">
-        <v>0.09898073580391141</v>
+        <v>0.0989807358039114</v>
       </c>
       <c r="P2" t="n">
-        <v>0.7199076399549454</v>
+        <v>0.719907639954945</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.41841036656617514</v>
+        <v>0.418410366566175</v>
       </c>
       <c r="R2" t="n">
-        <v>0.6689584939287695</v>
+        <v>0.668958493928769</v>
       </c>
       <c r="S2" t="n">
-        <v>0.7608965599327245</v>
+        <v>0.760896559932725</v>
       </c>
       <c r="T2" t="n">
-        <v>0.6630712849446293</v>
+        <v>0.663071284944629</v>
       </c>
       <c r="U2" t="n">
-        <v>0.8029863325731461</v>
+        <v>0.802986332573146</v>
       </c>
       <c r="V2" t="n">
-        <v>0.28617676272289555</v>
+        <v>0.286176762722896</v>
       </c>
       <c r="W2" t="n">
-        <v>-0.08458782956211898</v>
+        <v>-0.084587829562119</v>
       </c>
       <c r="X2" t="n">
-        <v>-0.07284511030367655</v>
+        <v>-0.0728451103036765</v>
       </c>
       <c r="Y2" t="n">
-        <v>0.08455590777682177</v>
+        <v>0.0845559077768218</v>
       </c>
       <c r="Z2" t="n">
-        <v>-0.4011099806689772</v>
+        <v>-0.401109980668977</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>0.15193166363410365</v>
+        <v>0.151931663634104</v>
       </c>
       <c r="C3" t="n">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D3" t="n">
-        <v>0.25286605418939784</v>
+        <v>0.252866054189398</v>
       </c>
       <c r="E3" t="n">
-        <v>0.03786431356993579</v>
+        <v>0.0378643135699358</v>
       </c>
       <c r="F3" t="n">
-        <v>0.6186671908127254</v>
+        <v>0.618667190812725</v>
       </c>
       <c r="G3" t="n">
-        <v>0.5392253551574553</v>
+        <v>0.539225355157455</v>
       </c>
       <c r="H3" t="n">
-        <v>0.19826409057912206</v>
+        <v>0.198264090579122</v>
       </c>
       <c r="I3" t="n">
-        <v>0.08475633843868018</v>
+        <v>0.0847563384386802</v>
       </c>
       <c r="J3" t="n">
-        <v>0.16015669423347648</v>
+        <v>0.160156694233476</v>
       </c>
       <c r="K3" t="n">
-        <v>-0.24757342733345372</v>
+        <v>-0.247573427333454</v>
       </c>
       <c r="L3" t="n">
-        <v>-0.014011475909318123</v>
+        <v>-0.0140114759093181</v>
       </c>
       <c r="M3" t="n">
-        <v>0.5539502635758272</v>
+        <v>0.553950263575827</v>
       </c>
       <c r="N3" t="n">
-        <v>0.15881967741018185</v>
+        <v>0.158819677410182</v>
       </c>
       <c r="O3" t="n">
-        <v>-0.08067872575838148</v>
+        <v>-0.0806787257583815</v>
       </c>
       <c r="P3" t="n">
-        <v>0.20296257443487184</v>
+        <v>0.202962574434872</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.21955187010836053</v>
+        <v>0.219551870108361</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1922578398223046</v>
+        <v>0.192257839822305</v>
       </c>
       <c r="S3" t="n">
-        <v>0.2103514687794412</v>
+        <v>0.210351468779441</v>
       </c>
       <c r="T3" t="n">
-        <v>0.1312054356926036</v>
+        <v>0.131205435692604</v>
       </c>
       <c r="U3" t="n">
-        <v>0.17689659643524452</v>
+        <v>0.176896596435245</v>
       </c>
       <c r="V3" t="n">
-        <v>0.12342536375189614</v>
+        <v>0.123425363751896</v>
       </c>
       <c r="W3" t="n">
-        <v>0.030121489048508535</v>
+        <v>0.0301214890485085</v>
       </c>
       <c r="X3" t="n">
-        <v>-0.08353010852171934</v>
+        <v>-0.0835301085217193</v>
       </c>
       <c r="Y3" t="n">
-        <v>0.13194355810060088</v>
+        <v>0.131943558100601</v>
       </c>
       <c r="Z3" t="n">
-        <v>-0.12854336852620524</v>
+        <v>-0.128543368526205</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>0.4024163631242274</v>
+        <v>0.402416363124227</v>
       </c>
       <c r="C4" t="n">
-        <v>0.25286605418939784</v>
+        <v>0.252866054189398</v>
       </c>
       <c r="D4" t="n">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="E4" t="n">
-        <v>0.18072227230353563</v>
+        <v>0.180722272303536</v>
       </c>
       <c r="F4" t="n">
-        <v>-0.034253816051520315</v>
+        <v>-0.0342538160515203</v>
       </c>
       <c r="G4" t="n">
-        <v>0.07320824707407643</v>
+        <v>0.0732082470740764</v>
       </c>
       <c r="H4" t="n">
         <v>0.657093862146251</v>
       </c>
       <c r="I4" t="n">
-        <v>0.18767579623297218</v>
+        <v>0.187675796232972</v>
       </c>
       <c r="J4" t="n">
-        <v>0.4726839840318307</v>
+        <v>0.472683984031831</v>
       </c>
       <c r="K4" t="n">
-        <v>-0.5895197979131472</v>
+        <v>-0.589519797913147</v>
       </c>
       <c r="L4" t="n">
-        <v>0.1992782685888592</v>
+        <v>0.199278268588859</v>
       </c>
       <c r="M4" t="n">
-        <v>-0.054627650722051606</v>
+        <v>-0.0546276507220516</v>
       </c>
       <c r="N4" t="n">
-        <v>0.3912074068938742</v>
+        <v>0.391207406893874</v>
       </c>
       <c r="O4" t="n">
-        <v>-0.1332189519573308</v>
+        <v>-0.133218951957331</v>
       </c>
       <c r="P4" t="n">
-        <v>0.6919856593643237</v>
+        <v>0.691985659364324</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.8209267117920817</v>
+        <v>0.820926711792082</v>
       </c>
       <c r="R4" t="n">
-        <v>0.7408899525340866</v>
+        <v>0.740889952534087</v>
       </c>
       <c r="S4" t="n">
-        <v>0.7404885110111071</v>
+        <v>0.740488511011107</v>
       </c>
       <c r="T4" t="n">
-        <v>0.5305627104623677</v>
+        <v>0.530562710462368</v>
       </c>
       <c r="U4" t="n">
-        <v>0.6176050955657476</v>
+        <v>0.617605095565748</v>
       </c>
       <c r="V4" t="n">
-        <v>0.4282428885074724</v>
+        <v>0.428242888507472</v>
       </c>
       <c r="W4" t="n">
-        <v>0.22524543185423943</v>
+        <v>0.225245431854239</v>
       </c>
       <c r="X4" t="n">
-        <v>-0.6215194847103886</v>
+        <v>-0.621519484710389</v>
       </c>
       <c r="Y4" t="n">
-        <v>0.35428835451686685</v>
+        <v>0.354288354516867</v>
       </c>
       <c r="Z4" t="n">
         <v>-0.403962001583791</v>
@@ -457,831 +743,831 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>-0.26136914956705654</v>
+        <v>-0.261369149567057</v>
       </c>
       <c r="C5" t="n">
-        <v>0.03786431356993579</v>
+        <v>0.0378643135699358</v>
       </c>
       <c r="D5" t="n">
-        <v>0.18072227230353563</v>
+        <v>0.180722272303536</v>
       </c>
       <c r="E5" t="n">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="F5" t="n">
-        <v>0.03278172609462328</v>
+        <v>0.0327817260946233</v>
       </c>
       <c r="G5" t="n">
-        <v>0.06034470386514934</v>
+        <v>0.0603447038651493</v>
       </c>
       <c r="H5" t="n">
-        <v>-0.013194352158107369</v>
+        <v>-0.0131943521581074</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.07021553936951251</v>
+        <v>-0.0702155393695125</v>
       </c>
       <c r="J5" t="n">
-        <v>-0.1744868333341813</v>
+        <v>-0.174486833334181</v>
       </c>
       <c r="K5" t="n">
-        <v>-0.11713835008223378</v>
+        <v>-0.117138350082234</v>
       </c>
       <c r="L5" t="n">
-        <v>0.08090051761098734</v>
+        <v>0.0809005176109873</v>
       </c>
       <c r="M5" t="n">
-        <v>-0.013601636024778029</v>
+        <v>-0.013601636024778</v>
       </c>
       <c r="N5" t="n">
-        <v>0.17068435440825117</v>
+        <v>0.170684354408251</v>
       </c>
       <c r="O5" t="n">
-        <v>-0.5241482125171177</v>
+        <v>-0.524148212517118</v>
       </c>
       <c r="P5" t="n">
-        <v>0.04469121278830977</v>
+        <v>0.0446912127883098</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.17396441728389117</v>
+        <v>0.173964417283891</v>
       </c>
       <c r="R5" t="n">
-        <v>0.09916322927525269</v>
+        <v>0.0991632292752527</v>
       </c>
       <c r="S5" t="n">
-        <v>0.012681909356761818</v>
+        <v>0.0126819093567618</v>
       </c>
       <c r="T5" t="n">
         <v>0.0347068955340546</v>
       </c>
       <c r="U5" t="n">
-        <v>-0.017382206999163766</v>
+        <v>-0.0173822069991638</v>
       </c>
       <c r="V5" t="n">
-        <v>0.3197340145862147</v>
+        <v>0.319734014586215</v>
       </c>
       <c r="W5" t="n">
-        <v>0.21187556600841595</v>
+        <v>0.211875566008416</v>
       </c>
       <c r="X5" t="n">
-        <v>-0.09352809362705967</v>
+        <v>-0.0935280936270597</v>
       </c>
       <c r="Y5" t="n">
-        <v>0.3710258199189911</v>
+        <v>0.371025819918991</v>
       </c>
       <c r="Z5" t="n">
-        <v>-0.13782882248723416</v>
+        <v>-0.137828822487234</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>0.08567396187878927</v>
+        <v>0.0856739618787893</v>
       </c>
       <c r="C6" t="n">
-        <v>0.6186671908127254</v>
+        <v>0.618667190812725</v>
       </c>
       <c r="D6" t="n">
-        <v>-0.034253816051520315</v>
+        <v>-0.0342538160515203</v>
       </c>
       <c r="E6" t="n">
-        <v>0.03278172609462328</v>
+        <v>0.0327817260946233</v>
       </c>
       <c r="F6" t="n">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="G6" t="n">
-        <v>0.47738453602684344</v>
+        <v>0.477384536026843</v>
       </c>
       <c r="H6" t="n">
-        <v>0.04575470388653489</v>
+        <v>0.0457547038865349</v>
       </c>
       <c r="I6" t="n">
         <v>0.0696284899091743</v>
       </c>
       <c r="J6" t="n">
-        <v>0.056843524935888824</v>
+        <v>0.0568435249358888</v>
       </c>
       <c r="K6" t="n">
-        <v>0.014816858874386139</v>
+        <v>0.0148168588743861</v>
       </c>
       <c r="L6" t="n">
-        <v>1.789392745322501E-5</v>
+        <v>0.000017893927453225</v>
       </c>
       <c r="M6" t="n">
-        <v>0.9746364699624246</v>
+        <v>0.974636469962425</v>
       </c>
       <c r="N6" t="n">
-        <v>0.028450170906007804</v>
+        <v>0.0284501709060078</v>
       </c>
       <c r="O6" t="n">
-        <v>-0.08187095677069421</v>
+        <v>-0.0818709567706942</v>
       </c>
       <c r="P6" t="n">
-        <v>-0.0016707612131358106</v>
+        <v>-0.00167076121313581</v>
       </c>
       <c r="Q6" t="n">
-        <v>-0.02086679788706595</v>
+        <v>-0.020866797887066</v>
       </c>
       <c r="R6" t="n">
-        <v>-0.03101900471251593</v>
+        <v>-0.0310190047125159</v>
       </c>
       <c r="S6" t="n">
         <v>0.004340057281572</v>
       </c>
       <c r="T6" t="n">
-        <v>-0.055216166178182945</v>
+        <v>-0.0552161661781829</v>
       </c>
       <c r="U6" t="n">
-        <v>0.04158987793778277</v>
+        <v>0.0415898779377828</v>
       </c>
       <c r="V6" t="n">
-        <v>0.11348022264803917</v>
+        <v>0.113480222648039</v>
       </c>
       <c r="W6" t="n">
-        <v>-0.03958479114431451</v>
+        <v>-0.0395847911443145</v>
       </c>
       <c r="X6" t="n">
         <v>0.0303464641101001</v>
       </c>
       <c r="Y6" t="n">
-        <v>0.026128403304239975</v>
+        <v>0.02612840330424</v>
       </c>
       <c r="Z6" t="n">
-        <v>-0.08720840212673289</v>
+        <v>-0.0872084021267329</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B7" t="n">
         <v>0.0940530750326406</v>
       </c>
       <c r="C7" t="n">
-        <v>0.5392253551574553</v>
+        <v>0.539225355157455</v>
       </c>
       <c r="D7" t="n">
-        <v>0.07320824707407643</v>
+        <v>0.0732082470740764</v>
       </c>
       <c r="E7" t="n">
-        <v>0.06034470386514934</v>
+        <v>0.0603447038651493</v>
       </c>
       <c r="F7" t="n">
-        <v>0.47738453602684344</v>
+        <v>0.477384536026843</v>
       </c>
       <c r="G7" t="n">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="H7" t="n">
         <v>0.0670075874710362</v>
       </c>
       <c r="I7" t="n">
-        <v>0.10193246633025822</v>
+        <v>0.101932466330258</v>
       </c>
       <c r="J7" t="n">
-        <v>0.08870496606743415</v>
+        <v>0.0887049660674342</v>
       </c>
       <c r="K7" t="n">
-        <v>-0.20515886606481024</v>
+        <v>-0.20515886606481</v>
       </c>
       <c r="L7" t="n">
-        <v>-0.08850943948929031</v>
+        <v>-0.0885094394892903</v>
       </c>
       <c r="M7" t="n">
-        <v>0.4356028991112492</v>
+        <v>0.435602899111249</v>
       </c>
       <c r="N7" t="n">
-        <v>0.13303258518752728</v>
+        <v>0.133032585187527</v>
       </c>
       <c r="O7" t="n">
-        <v>-0.04450008562798925</v>
+        <v>-0.0445000856279893</v>
       </c>
       <c r="P7" t="n">
-        <v>0.07266020606940225</v>
+        <v>0.0726602060694023</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.02093716738284558</v>
+        <v>0.0209371673828456</v>
       </c>
       <c r="R7" t="n">
-        <v>0.12761641657697947</v>
+        <v>0.127616416576979</v>
       </c>
       <c r="S7" t="n">
-        <v>0.11231368966347402</v>
+        <v>0.112313689663474</v>
       </c>
       <c r="T7" t="n">
-        <v>0.12009756281689278</v>
+        <v>0.120097562816893</v>
       </c>
       <c r="U7" t="n">
-        <v>0.05617996612779553</v>
+        <v>0.0561799661277955</v>
       </c>
       <c r="V7" t="n">
-        <v>0.05782745907899716</v>
+        <v>0.0578274590789972</v>
       </c>
       <c r="W7" t="n">
-        <v>-0.020568602552664877</v>
+        <v>-0.0205686025526649</v>
       </c>
       <c r="X7" t="n">
         <v>-0.0169998302752807</v>
       </c>
       <c r="Y7" t="n">
-        <v>0.07937092269341771</v>
+        <v>0.0793709226934177</v>
       </c>
       <c r="Z7" t="n">
-        <v>-0.11428132838583253</v>
+        <v>-0.114281328385833</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>0.8238722432873298</v>
+        <v>0.82387224328733</v>
       </c>
       <c r="C8" t="n">
-        <v>0.19826409057912206</v>
+        <v>0.198264090579122</v>
       </c>
       <c r="D8" t="n">
         <v>0.657093862146251</v>
       </c>
       <c r="E8" t="n">
-        <v>-0.013194352158107369</v>
+        <v>-0.0131943521581074</v>
       </c>
       <c r="F8" t="n">
-        <v>0.04575470388653489</v>
+        <v>0.0457547038865349</v>
       </c>
       <c r="G8" t="n">
         <v>0.0670075874710362</v>
       </c>
       <c r="H8" t="n">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="I8" t="n">
-        <v>0.6110722975305887</v>
+        <v>0.611072297530589</v>
       </c>
       <c r="J8" t="n">
-        <v>0.8373103033386963</v>
+        <v>0.837310303338696</v>
       </c>
       <c r="K8" t="n">
-        <v>-0.4321739688692924</v>
+        <v>-0.432173968869292</v>
       </c>
       <c r="L8" t="n">
-        <v>0.17127416345469104</v>
+        <v>0.171274163454691</v>
       </c>
       <c r="M8" t="n">
-        <v>0.014076587996664494</v>
+        <v>0.0140765879966645</v>
       </c>
       <c r="N8" t="n">
-        <v>0.37186633106692785</v>
+        <v>0.371866331066928</v>
       </c>
       <c r="O8" t="n">
-        <v>-0.02088145987633856</v>
+        <v>-0.0208814598763386</v>
       </c>
       <c r="P8" t="n">
-        <v>0.8296204522561029</v>
+        <v>0.829620452256103</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.6692070327662389</v>
+        <v>0.669207032766239</v>
       </c>
       <c r="R8" t="n">
-        <v>0.7891533711517214</v>
+        <v>0.789153371151721</v>
       </c>
       <c r="S8" t="n">
-        <v>0.8600057019398789</v>
+        <v>0.860005701939879</v>
       </c>
       <c r="T8" t="n">
-        <v>0.6925847829486167</v>
+        <v>0.692584782948617</v>
       </c>
       <c r="U8" t="n">
-        <v>0.9675746001702192</v>
+        <v>0.967574600170219</v>
       </c>
       <c r="V8" t="n">
-        <v>0.3892021557968771</v>
+        <v>0.389202155796877</v>
       </c>
       <c r="W8" t="n">
-        <v>0.014091803911765958</v>
+        <v>0.014091803911766</v>
       </c>
       <c r="X8" t="n">
-        <v>-0.2801629473829435</v>
+        <v>-0.280162947382944</v>
       </c>
       <c r="Y8" t="n">
-        <v>0.2032319367615462</v>
+        <v>0.203231936761546</v>
       </c>
       <c r="Z8" t="n">
-        <v>-0.4341566041716615</v>
+        <v>-0.434156604171662</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>0.7349644893289486</v>
+        <v>0.734964489328949</v>
       </c>
       <c r="C9" t="n">
-        <v>0.08475633843868018</v>
+        <v>0.0847563384386802</v>
       </c>
       <c r="D9" t="n">
-        <v>0.18767579623297218</v>
+        <v>0.187675796232972</v>
       </c>
       <c r="E9" t="n">
-        <v>-0.07021553936951251</v>
+        <v>-0.0702155393695125</v>
       </c>
       <c r="F9" t="n">
         <v>0.0696284899091743</v>
       </c>
       <c r="G9" t="n">
-        <v>0.10193246633025822</v>
+        <v>0.101932466330258</v>
       </c>
       <c r="H9" t="n">
-        <v>0.6110722975305887</v>
+        <v>0.611072297530589</v>
       </c>
       <c r="I9" t="n">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="J9" t="n">
-        <v>0.6633924528691536</v>
+        <v>0.663392452869154</v>
       </c>
       <c r="K9" t="n">
-        <v>-0.11701146358484438</v>
+        <v>-0.117011463584844</v>
       </c>
       <c r="L9" t="n">
-        <v>0.10046434382668716</v>
+        <v>0.100464343826687</v>
       </c>
       <c r="M9" t="n">
-        <v>0.03945292759330184</v>
+        <v>0.0394529275933018</v>
       </c>
       <c r="N9" t="n">
-        <v>0.22773554027698933</v>
+        <v>0.227735540276989</v>
       </c>
       <c r="O9" t="n">
-        <v>0.2218534540498559</v>
+        <v>0.221853454049856</v>
       </c>
       <c r="P9" t="n">
-        <v>0.5467331046847627</v>
+        <v>0.546733104684763</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.20085113283529385</v>
+        <v>0.200851132835294</v>
       </c>
       <c r="R9" t="n">
-        <v>0.4206715471262043</v>
+        <v>0.420671547126204</v>
       </c>
       <c r="S9" t="n">
-        <v>0.5425080105807821</v>
+        <v>0.542508010580782</v>
       </c>
       <c r="T9" t="n">
-        <v>0.5365834768646789</v>
+        <v>0.536583476864679</v>
       </c>
       <c r="U9" t="n">
-        <v>0.5809706791059193</v>
+        <v>0.580970679105919</v>
       </c>
       <c r="V9" t="n">
-        <v>0.28412005611371377</v>
+        <v>0.284120056113714</v>
       </c>
       <c r="W9" t="n">
-        <v>-0.17330317079879684</v>
+        <v>-0.173303170798797</v>
       </c>
       <c r="X9" t="n">
-        <v>0.022711735795511532</v>
+        <v>0.0227117357955115</v>
       </c>
       <c r="Y9" t="n">
-        <v>0.15882379646701883</v>
+        <v>0.158823796467019</v>
       </c>
       <c r="Z9" t="n">
-        <v>-0.3704353355022719</v>
+        <v>-0.370435335502272</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>0.9115736614095262</v>
+        <v>0.911573661409526</v>
       </c>
       <c r="C10" t="n">
-        <v>0.16015669423347648</v>
+        <v>0.160156694233476</v>
       </c>
       <c r="D10" t="n">
-        <v>0.4726839840318307</v>
+        <v>0.472683984031831</v>
       </c>
       <c r="E10" t="n">
-        <v>-0.1744868333341813</v>
+        <v>-0.174486833334181</v>
       </c>
       <c r="F10" t="n">
-        <v>0.056843524935888824</v>
+        <v>0.0568435249358888</v>
       </c>
       <c r="G10" t="n">
-        <v>0.08870496606743415</v>
+        <v>0.0887049660674342</v>
       </c>
       <c r="H10" t="n">
-        <v>0.8373103033386963</v>
+        <v>0.837310303338696</v>
       </c>
       <c r="I10" t="n">
-        <v>0.6633924528691536</v>
+        <v>0.663392452869154</v>
       </c>
       <c r="J10" t="n">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="K10" t="n">
-        <v>-0.29423315248022763</v>
+        <v>-0.294233152480228</v>
       </c>
       <c r="L10" t="n">
-        <v>0.11577431062799072</v>
+        <v>0.115774310627991</v>
       </c>
       <c r="M10" t="n">
-        <v>0.04433122975022115</v>
+        <v>0.0443312297502211</v>
       </c>
       <c r="N10" t="n">
-        <v>0.2969498307461992</v>
+        <v>0.296949830746199</v>
       </c>
       <c r="O10" t="n">
         <v>0.0908379373418088</v>
       </c>
       <c r="P10" t="n">
-        <v>0.7871960121598922</v>
+        <v>0.787196012159892</v>
       </c>
       <c r="Q10" t="n">
         <v>0.522626064001739</v>
       </c>
       <c r="R10" t="n">
-        <v>0.7063770716666301</v>
+        <v>0.70637707166663</v>
       </c>
       <c r="S10" t="n">
-        <v>0.8138186876058502</v>
+        <v>0.81381868760585</v>
       </c>
       <c r="T10" t="n">
-        <v>0.6906421227490411</v>
+        <v>0.690642122749041</v>
       </c>
       <c r="U10" t="n">
-        <v>0.8153883006279398</v>
+        <v>0.81538830062794</v>
       </c>
       <c r="V10" t="n">
-        <v>0.3369805379030569</v>
+        <v>0.336980537903057</v>
       </c>
       <c r="W10" t="n">
-        <v>-0.09522344759233677</v>
+        <v>-0.0952234475923368</v>
       </c>
       <c r="X10" t="n">
-        <v>-0.12749098654605362</v>
+        <v>-0.127490986546054</v>
       </c>
       <c r="Y10" t="n">
         <v>0.153620581343591</v>
       </c>
       <c r="Z10" t="n">
-        <v>-0.3694442735640953</v>
+        <v>-0.369444273564095</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>-0.25273429981618145</v>
+        <v>-0.252734299816181</v>
       </c>
       <c r="C11" t="n">
-        <v>-0.24757342733345372</v>
+        <v>-0.247573427333454</v>
       </c>
       <c r="D11" t="n">
-        <v>-0.5895197979131472</v>
+        <v>-0.589519797913147</v>
       </c>
       <c r="E11" t="n">
-        <v>-0.11713835008223378</v>
+        <v>-0.117138350082234</v>
       </c>
       <c r="F11" t="n">
-        <v>0.014816858874386139</v>
+        <v>0.0148168588743861</v>
       </c>
       <c r="G11" t="n">
-        <v>-0.20515886606481024</v>
+        <v>-0.20515886606481</v>
       </c>
       <c r="H11" t="n">
-        <v>-0.4321739688692924</v>
+        <v>-0.432173968869292</v>
       </c>
       <c r="I11" t="n">
-        <v>-0.11701146358484438</v>
+        <v>-0.117011463584844</v>
       </c>
       <c r="J11" t="n">
-        <v>-0.29423315248022763</v>
+        <v>-0.294233152480228</v>
       </c>
       <c r="K11" t="n">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="L11" t="n">
         <v>0.0333315323015619</v>
       </c>
       <c r="M11" t="n">
-        <v>0.028357411615512088</v>
+        <v>0.0283574116155121</v>
       </c>
       <c r="N11" t="n">
-        <v>-0.32596388213514016</v>
+        <v>-0.32596388213514</v>
       </c>
       <c r="O11" t="n">
         <v>0.0621159130653381</v>
       </c>
       <c r="P11" t="n">
-        <v>-0.4355749338179919</v>
+        <v>-0.435574933817992</v>
       </c>
       <c r="Q11" t="n">
-        <v>-0.5936299297640572</v>
+        <v>-0.593629929764057</v>
       </c>
       <c r="R11" t="n">
-        <v>-0.49687336223806877</v>
+        <v>-0.496873362238069</v>
       </c>
       <c r="S11" t="n">
-        <v>-0.4385684268984241</v>
+        <v>-0.438568426898424</v>
       </c>
       <c r="T11" t="n">
-        <v>-0.4109688889727198</v>
+        <v>-0.41096888897272</v>
       </c>
       <c r="U11" t="n">
-        <v>-0.4116200398367892</v>
+        <v>-0.411620039836789</v>
       </c>
       <c r="V11" t="n">
-        <v>-0.37849597407804314</v>
+        <v>-0.378495974078043</v>
       </c>
       <c r="W11" t="n">
-        <v>-0.20914989074688217</v>
+        <v>-0.209149890746882</v>
       </c>
       <c r="X11" t="n">
-        <v>0.4942563626777176</v>
+        <v>0.494256362677718</v>
       </c>
       <c r="Y11" t="n">
-        <v>-0.3243394126696966</v>
+        <v>-0.324339412669697</v>
       </c>
       <c r="Z11" t="n">
-        <v>0.29170724964529177</v>
+        <v>0.291707249645292</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B12" t="n">
         <v>0.0855223849805489</v>
       </c>
       <c r="C12" t="n">
-        <v>-0.014011475909318123</v>
+        <v>-0.0140114759093181</v>
       </c>
       <c r="D12" t="n">
-        <v>0.1992782685888592</v>
+        <v>0.199278268588859</v>
       </c>
       <c r="E12" t="n">
-        <v>0.08090051761098734</v>
+        <v>0.0809005176109873</v>
       </c>
       <c r="F12" t="n">
-        <v>1.789392745322501E-5</v>
+        <v>0.000017893927453225</v>
       </c>
       <c r="G12" t="n">
-        <v>-0.08850943948929031</v>
+        <v>-0.0885094394892903</v>
       </c>
       <c r="H12" t="n">
-        <v>0.17127416345469104</v>
+        <v>0.171274163454691</v>
       </c>
       <c r="I12" t="n">
-        <v>0.10046434382668716</v>
+        <v>0.100464343826687</v>
       </c>
       <c r="J12" t="n">
-        <v>0.11577431062799072</v>
+        <v>0.115774310627991</v>
       </c>
       <c r="K12" t="n">
         <v>0.0333315323015619</v>
       </c>
       <c r="L12" t="n">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="M12" t="n">
-        <v>0.005336960978849341</v>
+        <v>0.00533696097884934</v>
       </c>
       <c r="N12" t="n">
-        <v>-0.12151970782931802</v>
+        <v>-0.121519707829318</v>
       </c>
       <c r="O12" t="n">
-        <v>-0.11360683297208773</v>
+        <v>-0.113606832972088</v>
       </c>
       <c r="P12" t="n">
-        <v>0.12656542318608524</v>
+        <v>0.126565423186085</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.1664271841834162</v>
+        <v>0.166427184183416</v>
       </c>
       <c r="R12" t="n">
-        <v>0.08523449126640081</v>
+        <v>0.0852344912664008</v>
       </c>
       <c r="S12" t="n">
-        <v>0.1745050980949839</v>
+        <v>0.174505098094984</v>
       </c>
       <c r="T12" t="n">
-        <v>0.06761528809530261</v>
+        <v>0.0676152880953026</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1765167789235841</v>
+        <v>0.176516778923584</v>
       </c>
       <c r="V12" t="n">
-        <v>0.1506415244011129</v>
+        <v>0.150641524401113</v>
       </c>
       <c r="W12" t="n">
-        <v>0.10520499633194716</v>
+        <v>0.105204996331947</v>
       </c>
       <c r="X12" t="n">
-        <v>-0.29959073701167027</v>
+        <v>-0.29959073701167</v>
       </c>
       <c r="Y12" t="n">
-        <v>0.052856757131522276</v>
+        <v>0.0528567571315223</v>
       </c>
       <c r="Z12" t="n">
-        <v>-0.14959965263942152</v>
+        <v>-0.149599652639422</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>0.07507187345534551</v>
+        <v>0.0750718734553455</v>
       </c>
       <c r="C13" t="n">
-        <v>0.5539502635758272</v>
+        <v>0.553950263575827</v>
       </c>
       <c r="D13" t="n">
-        <v>-0.054627650722051606</v>
+        <v>-0.0546276507220516</v>
       </c>
       <c r="E13" t="n">
-        <v>-0.013601636024778029</v>
+        <v>-0.013601636024778</v>
       </c>
       <c r="F13" t="n">
-        <v>0.9746364699624246</v>
+        <v>0.974636469962425</v>
       </c>
       <c r="G13" t="n">
-        <v>0.4356028991112492</v>
+        <v>0.435602899111249</v>
       </c>
       <c r="H13" t="n">
-        <v>0.014076587996664494</v>
+        <v>0.0140765879966645</v>
       </c>
       <c r="I13" t="n">
-        <v>0.03945292759330184</v>
+        <v>0.0394529275933018</v>
       </c>
       <c r="J13" t="n">
-        <v>0.04433122975022115</v>
+        <v>0.0443312297502211</v>
       </c>
       <c r="K13" t="n">
-        <v>0.028357411615512088</v>
+        <v>0.0283574116155121</v>
       </c>
       <c r="L13" t="n">
-        <v>0.005336960978849341</v>
+        <v>0.00533696097884934</v>
       </c>
       <c r="M13" t="n">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="N13" t="n">
-        <v>8.16606447336251E-4</v>
+        <v>0.000816606447336251</v>
       </c>
       <c r="O13" t="n">
-        <v>-0.07006301254917342</v>
+        <v>-0.0700630125491734</v>
       </c>
       <c r="P13" t="n">
         <v>-0.0341622270864396</v>
       </c>
       <c r="Q13" t="n">
-        <v>-0.03884806373697036</v>
+        <v>-0.0388480637369704</v>
       </c>
       <c r="R13" t="n">
-        <v>-0.06196215844947839</v>
+        <v>-0.0619621584494784</v>
       </c>
       <c r="S13" t="n">
-        <v>-0.022261997797862573</v>
+        <v>-0.0222619977978626</v>
       </c>
       <c r="T13" t="n">
         <v>-0.0928608437095917</v>
       </c>
       <c r="U13" t="n">
-        <v>0.0074615245624678845</v>
+        <v>0.00746152456246788</v>
       </c>
       <c r="V13" t="n">
-        <v>0.09747728448388304</v>
+        <v>0.097477284483883</v>
       </c>
       <c r="W13" t="n">
-        <v>-0.029348436638799567</v>
+        <v>-0.0293484366387996</v>
       </c>
       <c r="X13" t="n">
-        <v>0.03727040232849405</v>
+        <v>0.0372704023284941</v>
       </c>
       <c r="Y13" t="n">
-        <v>-4.5622569097599993E-4</v>
+        <v>-0.000456225690976</v>
       </c>
       <c r="Z13" t="n">
-        <v>-0.048271099327374126</v>
+        <v>-0.0482710993273741</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>0.2649912355622293</v>
+        <v>0.264991235562229</v>
       </c>
       <c r="C14" t="n">
-        <v>0.15881967741018185</v>
+        <v>0.158819677410182</v>
       </c>
       <c r="D14" t="n">
-        <v>0.3912074068938742</v>
+        <v>0.391207406893874</v>
       </c>
       <c r="E14" t="n">
-        <v>0.17068435440825117</v>
+        <v>0.170684354408251</v>
       </c>
       <c r="F14" t="n">
-        <v>0.028450170906007804</v>
+        <v>0.0284501709060078</v>
       </c>
       <c r="G14" t="n">
-        <v>0.13303258518752728</v>
+        <v>0.133032585187527</v>
       </c>
       <c r="H14" t="n">
-        <v>0.37186633106692785</v>
+        <v>0.371866331066928</v>
       </c>
       <c r="I14" t="n">
-        <v>0.22773554027698933</v>
+        <v>0.227735540276989</v>
       </c>
       <c r="J14" t="n">
-        <v>0.2969498307461992</v>
+        <v>0.296949830746199</v>
       </c>
       <c r="K14" t="n">
-        <v>-0.32596388213514016</v>
+        <v>-0.32596388213514</v>
       </c>
       <c r="L14" t="n">
-        <v>-0.12151970782931802</v>
+        <v>-0.121519707829318</v>
       </c>
       <c r="M14" t="n">
-        <v>8.16606447336251E-4</v>
+        <v>0.000816606447336251</v>
       </c>
       <c r="N14" t="n">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="O14" t="n">
-        <v>0.017761068677049793</v>
+        <v>0.0177610686770498</v>
       </c>
       <c r="P14" t="n">
-        <v>0.5235550406041395</v>
+        <v>0.523555040604139</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.5076338188225815</v>
+        <v>0.507633818822582</v>
       </c>
       <c r="R14" t="n">
-        <v>0.4178839925276908</v>
+        <v>0.417883992527691</v>
       </c>
       <c r="S14" t="n">
-        <v>0.4680960322291072</v>
+        <v>0.468096032229107</v>
       </c>
       <c r="T14" t="n">
         <v>0.46075230487427</v>
       </c>
       <c r="U14" t="n">
-        <v>0.38547552005999597</v>
+        <v>0.385475520059996</v>
       </c>
       <c r="V14" t="n">
-        <v>0.19753563386839837</v>
+        <v>0.197535633868398</v>
       </c>
       <c r="W14" t="n">
-        <v>-0.15072958826214836</v>
+        <v>-0.150729588262148</v>
       </c>
       <c r="X14" t="n">
-        <v>-0.09833910460958849</v>
+        <v>-0.0983391046095885</v>
       </c>
       <c r="Y14" t="n">
-        <v>0.11105607610764806</v>
+        <v>0.111056076107648</v>
       </c>
       <c r="Z14" t="n">
-        <v>-0.37823939841170795</v>
+        <v>-0.378239398411708</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>0.09898073580391141</v>
+        <v>0.0989807358039114</v>
       </c>
       <c r="C15" t="n">
-        <v>-0.08067872575838148</v>
+        <v>-0.0806787257583815</v>
       </c>
       <c r="D15" t="n">
-        <v>-0.1332189519573308</v>
+        <v>-0.133218951957331</v>
       </c>
       <c r="E15" t="n">
-        <v>-0.5241482125171177</v>
+        <v>-0.524148212517118</v>
       </c>
       <c r="F15" t="n">
-        <v>-0.08187095677069421</v>
+        <v>-0.0818709567706942</v>
       </c>
       <c r="G15" t="n">
-        <v>-0.04450008562798925</v>
+        <v>-0.0445000856279893</v>
       </c>
       <c r="H15" t="n">
-        <v>-0.02088145987633856</v>
+        <v>-0.0208814598763386</v>
       </c>
       <c r="I15" t="n">
-        <v>0.2218534540498559</v>
+        <v>0.221853454049856</v>
       </c>
       <c r="J15" t="n">
         <v>0.0908379373418088</v>
@@ -1290,407 +1576,407 @@
         <v>0.0621159130653381</v>
       </c>
       <c r="L15" t="n">
-        <v>-0.11360683297208773</v>
+        <v>-0.113606832972088</v>
       </c>
       <c r="M15" t="n">
-        <v>-0.07006301254917342</v>
+        <v>-0.0700630125491734</v>
       </c>
       <c r="N15" t="n">
-        <v>0.017761068677049793</v>
+        <v>0.0177610686770498</v>
       </c>
       <c r="O15" t="n">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="P15" t="n">
-        <v>0.04667034346725342</v>
+        <v>0.0466703434672534</v>
       </c>
       <c r="Q15" t="n">
-        <v>-0.04744302191693503</v>
+        <v>-0.047443021916935</v>
       </c>
       <c r="R15" t="n">
-        <v>-0.19487654639555677</v>
+        <v>-0.194876546395557</v>
       </c>
       <c r="S15" t="n">
-        <v>0.06132139179938568</v>
+        <v>0.0613213917993857</v>
       </c>
       <c r="T15" t="n">
-        <v>-0.053950422107609544</v>
+        <v>-0.0539504221076095</v>
       </c>
       <c r="U15" t="n">
-        <v>-0.062342608842098114</v>
+        <v>-0.0623426088420981</v>
       </c>
       <c r="V15" t="n">
-        <v>-0.3204535248684406</v>
+        <v>-0.320453524868441</v>
       </c>
       <c r="W15" t="n">
-        <v>-0.3550934282905189</v>
+        <v>-0.355093428290519</v>
       </c>
       <c r="X15" t="n">
-        <v>0.09001288571804851</v>
+        <v>0.0900128857180485</v>
       </c>
       <c r="Y15" t="n">
-        <v>-0.3039686418570449</v>
+        <v>-0.303968641857045</v>
       </c>
       <c r="Z15" t="n">
-        <v>0.10943032249395479</v>
+        <v>0.109430322493955</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>0.7199076399549454</v>
+        <v>0.719907639954945</v>
       </c>
       <c r="C16" t="n">
-        <v>0.20296257443487184</v>
+        <v>0.202962574434872</v>
       </c>
       <c r="D16" t="n">
-        <v>0.6919856593643237</v>
+        <v>0.691985659364324</v>
       </c>
       <c r="E16" t="n">
-        <v>0.04469121278830977</v>
+        <v>0.0446912127883098</v>
       </c>
       <c r="F16" t="n">
-        <v>-0.0016707612131358106</v>
+        <v>-0.00167076121313581</v>
       </c>
       <c r="G16" t="n">
-        <v>0.07266020606940225</v>
+        <v>0.0726602060694023</v>
       </c>
       <c r="H16" t="n">
-        <v>0.8296204522561029</v>
+        <v>0.829620452256103</v>
       </c>
       <c r="I16" t="n">
-        <v>0.5467331046847627</v>
+        <v>0.546733104684763</v>
       </c>
       <c r="J16" t="n">
-        <v>0.7871960121598922</v>
+        <v>0.787196012159892</v>
       </c>
       <c r="K16" t="n">
-        <v>-0.4355749338179919</v>
+        <v>-0.435574933817992</v>
       </c>
       <c r="L16" t="n">
-        <v>0.12656542318608524</v>
+        <v>0.126565423186085</v>
       </c>
       <c r="M16" t="n">
         <v>-0.0341622270864396</v>
       </c>
       <c r="N16" t="n">
-        <v>0.5235550406041395</v>
+        <v>0.523555040604139</v>
       </c>
       <c r="O16" t="n">
-        <v>0.04667034346725342</v>
+        <v>0.0466703434672534</v>
       </c>
       <c r="P16" t="n">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="Q16" t="n">
-        <v>0.7326700818706109</v>
+        <v>0.732670081870611</v>
       </c>
       <c r="R16" t="n">
-        <v>0.8163636092768212</v>
+        <v>0.816363609276821</v>
       </c>
       <c r="S16" t="n">
-        <v>0.9219399027824564</v>
+        <v>0.921939902782456</v>
       </c>
       <c r="T16" t="n">
-        <v>0.7328636168398585</v>
+        <v>0.732863616839858</v>
       </c>
       <c r="U16" t="n">
-        <v>0.7976595088675659</v>
+        <v>0.797659508867566</v>
       </c>
       <c r="V16" t="n">
-        <v>0.4096539265219658</v>
+        <v>0.409653926521966</v>
       </c>
       <c r="W16" t="n">
-        <v>-0.06255645424593269</v>
+        <v>-0.0625564542459327</v>
       </c>
       <c r="X16" t="n">
-        <v>-0.23201804806442144</v>
+        <v>-0.232018048064421</v>
       </c>
       <c r="Y16" t="n">
-        <v>0.3060140067542387</v>
+        <v>0.306014006754239</v>
       </c>
       <c r="Z16" t="n">
-        <v>-0.4820619657939511</v>
+        <v>-0.482061965793951</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>0.41841036656617514</v>
+        <v>0.418410366566175</v>
       </c>
       <c r="C17" t="n">
-        <v>0.21955187010836053</v>
+        <v>0.219551870108361</v>
       </c>
       <c r="D17" t="n">
-        <v>0.8209267117920817</v>
+        <v>0.820926711792082</v>
       </c>
       <c r="E17" t="n">
-        <v>0.17396441728389117</v>
+        <v>0.173964417283891</v>
       </c>
       <c r="F17" t="n">
-        <v>-0.02086679788706595</v>
+        <v>-0.020866797887066</v>
       </c>
       <c r="G17" t="n">
-        <v>0.02093716738284558</v>
+        <v>0.0209371673828456</v>
       </c>
       <c r="H17" t="n">
-        <v>0.6692070327662389</v>
+        <v>0.669207032766239</v>
       </c>
       <c r="I17" t="n">
-        <v>0.20085113283529385</v>
+        <v>0.200851132835294</v>
       </c>
       <c r="J17" t="n">
         <v>0.522626064001739</v>
       </c>
       <c r="K17" t="n">
-        <v>-0.5936299297640572</v>
+        <v>-0.593629929764057</v>
       </c>
       <c r="L17" t="n">
-        <v>0.1664271841834162</v>
+        <v>0.166427184183416</v>
       </c>
       <c r="M17" t="n">
-        <v>-0.03884806373697036</v>
+        <v>-0.0388480637369704</v>
       </c>
       <c r="N17" t="n">
-        <v>0.5076338188225815</v>
+        <v>0.507633818822582</v>
       </c>
       <c r="O17" t="n">
-        <v>-0.04744302191693503</v>
+        <v>-0.047443021916935</v>
       </c>
       <c r="P17" t="n">
-        <v>0.7326700818706109</v>
+        <v>0.732670081870611</v>
       </c>
       <c r="Q17" t="n">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="R17" t="n">
-        <v>0.7184491285675197</v>
+        <v>0.71844912856752</v>
       </c>
       <c r="S17" t="n">
-        <v>0.7378093740982802</v>
+        <v>0.73780937409828</v>
       </c>
       <c r="T17" t="n">
-        <v>0.5570910470452511</v>
+        <v>0.557091047045251</v>
       </c>
       <c r="U17" t="n">
-        <v>0.6311660539010601</v>
+        <v>0.63116605390106</v>
       </c>
       <c r="V17" t="n">
-        <v>0.4968038856432159</v>
+        <v>0.496803885643216</v>
       </c>
       <c r="W17" t="n">
-        <v>0.1257376519529986</v>
+        <v>0.125737651952999</v>
       </c>
       <c r="X17" t="n">
-        <v>-0.5839620672993736</v>
+        <v>-0.583962067299374</v>
       </c>
       <c r="Y17" t="n">
-        <v>0.36776739404633046</v>
+        <v>0.36776739404633</v>
       </c>
       <c r="Z17" t="n">
-        <v>-0.48005192151963416</v>
+        <v>-0.480051921519634</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B18" t="n">
-        <v>0.6689584939287695</v>
+        <v>0.668958493928769</v>
       </c>
       <c r="C18" t="n">
-        <v>0.1922578398223046</v>
+        <v>0.192257839822305</v>
       </c>
       <c r="D18" t="n">
-        <v>0.7408899525340866</v>
+        <v>0.740889952534087</v>
       </c>
       <c r="E18" t="n">
-        <v>0.09916322927525269</v>
+        <v>0.0991632292752527</v>
       </c>
       <c r="F18" t="n">
-        <v>-0.03101900471251593</v>
+        <v>-0.0310190047125159</v>
       </c>
       <c r="G18" t="n">
-        <v>0.12761641657697947</v>
+        <v>0.127616416576979</v>
       </c>
       <c r="H18" t="n">
-        <v>0.7891533711517214</v>
+        <v>0.789153371151721</v>
       </c>
       <c r="I18" t="n">
-        <v>0.4206715471262043</v>
+        <v>0.420671547126204</v>
       </c>
       <c r="J18" t="n">
-        <v>0.7063770716666301</v>
+        <v>0.70637707166663</v>
       </c>
       <c r="K18" t="n">
-        <v>-0.49687336223806877</v>
+        <v>-0.496873362238069</v>
       </c>
       <c r="L18" t="n">
-        <v>0.08523449126640081</v>
+        <v>0.0852344912664008</v>
       </c>
       <c r="M18" t="n">
-        <v>-0.06196215844947839</v>
+        <v>-0.0619621584494784</v>
       </c>
       <c r="N18" t="n">
-        <v>0.4178839925276908</v>
+        <v>0.417883992527691</v>
       </c>
       <c r="O18" t="n">
-        <v>-0.19487654639555677</v>
+        <v>-0.194876546395557</v>
       </c>
       <c r="P18" t="n">
-        <v>0.8163636092768212</v>
+        <v>0.816363609276821</v>
       </c>
       <c r="Q18" t="n">
-        <v>0.7184491285675197</v>
+        <v>0.71844912856752</v>
       </c>
       <c r="R18" t="n">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="S18" t="n">
-        <v>0.8090609106467869</v>
+        <v>0.809060910646787</v>
       </c>
       <c r="T18" t="n">
-        <v>0.7743401499881151</v>
+        <v>0.774340149988115</v>
       </c>
       <c r="U18" t="n">
-        <v>0.7804501554284812</v>
+        <v>0.780450155428481</v>
       </c>
       <c r="V18" t="n">
-        <v>0.5814972541549599</v>
+        <v>0.58149725415496</v>
       </c>
       <c r="W18" t="n">
-        <v>0.1278531055274935</v>
+        <v>0.127853105527493</v>
       </c>
       <c r="X18" t="n">
-        <v>-0.4087178123026343</v>
+        <v>-0.408717812302634</v>
       </c>
       <c r="Y18" t="n">
-        <v>0.5030086294863072</v>
+        <v>0.503008629486307</v>
       </c>
       <c r="Z18" t="n">
-        <v>-0.5108695533115873</v>
+        <v>-0.510869553311587</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B19" t="n">
-        <v>0.7608965599327245</v>
+        <v>0.760896559932725</v>
       </c>
       <c r="C19" t="n">
-        <v>0.2103514687794412</v>
+        <v>0.210351468779441</v>
       </c>
       <c r="D19" t="n">
-        <v>0.7404885110111071</v>
+        <v>0.740488511011107</v>
       </c>
       <c r="E19" t="n">
-        <v>0.012681909356761818</v>
+        <v>0.0126819093567618</v>
       </c>
       <c r="F19" t="n">
         <v>0.004340057281572</v>
       </c>
       <c r="G19" t="n">
-        <v>0.11231368966347402</v>
+        <v>0.112313689663474</v>
       </c>
       <c r="H19" t="n">
-        <v>0.8600057019398789</v>
+        <v>0.860005701939879</v>
       </c>
       <c r="I19" t="n">
-        <v>0.5425080105807821</v>
+        <v>0.542508010580782</v>
       </c>
       <c r="J19" t="n">
-        <v>0.8138186876058502</v>
+        <v>0.81381868760585</v>
       </c>
       <c r="K19" t="n">
-        <v>-0.4385684268984241</v>
+        <v>-0.438568426898424</v>
       </c>
       <c r="L19" t="n">
-        <v>0.1745050980949839</v>
+        <v>0.174505098094984</v>
       </c>
       <c r="M19" t="n">
-        <v>-0.022261997797862573</v>
+        <v>-0.0222619977978626</v>
       </c>
       <c r="N19" t="n">
-        <v>0.4680960322291072</v>
+        <v>0.468096032229107</v>
       </c>
       <c r="O19" t="n">
-        <v>0.06132139179938568</v>
+        <v>0.0613213917993857</v>
       </c>
       <c r="P19" t="n">
-        <v>0.9219399027824564</v>
+        <v>0.921939902782456</v>
       </c>
       <c r="Q19" t="n">
-        <v>0.7378093740982802</v>
+        <v>0.73780937409828</v>
       </c>
       <c r="R19" t="n">
-        <v>0.8090609106467869</v>
+        <v>0.809060910646787</v>
       </c>
       <c r="S19" t="n">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="T19" t="n">
-        <v>0.7328158038760455</v>
+        <v>0.732815803876046</v>
       </c>
       <c r="U19" t="n">
-        <v>0.8295687287945173</v>
+        <v>0.829568728794517</v>
       </c>
       <c r="V19" t="n">
-        <v>0.38308629467997524</v>
+        <v>0.383086294679975</v>
       </c>
       <c r="W19" t="n">
-        <v>-0.029723114843876637</v>
+        <v>-0.0297231148438766</v>
       </c>
       <c r="X19" t="n">
-        <v>-0.29511657835112587</v>
+        <v>-0.295116578351126</v>
       </c>
       <c r="Y19" t="n">
-        <v>0.23811413307725982</v>
+        <v>0.23811413307726</v>
       </c>
       <c r="Z19" t="n">
-        <v>-0.4563489462933781</v>
+        <v>-0.456348946293378</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B20" t="n">
-        <v>0.6630712849446293</v>
+        <v>0.663071284944629</v>
       </c>
       <c r="C20" t="n">
-        <v>0.1312054356926036</v>
+        <v>0.131205435692604</v>
       </c>
       <c r="D20" t="n">
-        <v>0.5305627104623677</v>
+        <v>0.530562710462368</v>
       </c>
       <c r="E20" t="n">
         <v>0.0347068955340546</v>
       </c>
       <c r="F20" t="n">
-        <v>-0.055216166178182945</v>
+        <v>-0.0552161661781829</v>
       </c>
       <c r="G20" t="n">
-        <v>0.12009756281689278</v>
+        <v>0.120097562816893</v>
       </c>
       <c r="H20" t="n">
-        <v>0.6925847829486167</v>
+        <v>0.692584782948617</v>
       </c>
       <c r="I20" t="n">
-        <v>0.5365834768646789</v>
+        <v>0.536583476864679</v>
       </c>
       <c r="J20" t="n">
-        <v>0.6906421227490411</v>
+        <v>0.690642122749041</v>
       </c>
       <c r="K20" t="n">
-        <v>-0.4109688889727198</v>
+        <v>-0.41096888897272</v>
       </c>
       <c r="L20" t="n">
-        <v>0.06761528809530261</v>
+        <v>0.0676152880953026</v>
       </c>
       <c r="M20" t="n">
         <v>-0.0928608437095917</v>
@@ -1699,297 +1985,297 @@
         <v>0.46075230487427</v>
       </c>
       <c r="O20" t="n">
-        <v>-0.053950422107609544</v>
+        <v>-0.0539504221076095</v>
       </c>
       <c r="P20" t="n">
-        <v>0.7328636168398585</v>
+        <v>0.732863616839858</v>
       </c>
       <c r="Q20" t="n">
-        <v>0.5570910470452511</v>
+        <v>0.557091047045251</v>
       </c>
       <c r="R20" t="n">
-        <v>0.7743401499881151</v>
+        <v>0.774340149988115</v>
       </c>
       <c r="S20" t="n">
-        <v>0.7328158038760455</v>
+        <v>0.732815803876046</v>
       </c>
       <c r="T20" t="n">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="U20" t="n">
-        <v>0.7045009169529786</v>
+        <v>0.704500916952979</v>
       </c>
       <c r="V20" t="n">
-        <v>0.4693794702582946</v>
+        <v>0.469379470258295</v>
       </c>
       <c r="W20" t="n">
-        <v>0.02813812765086062</v>
+        <v>0.0281381276508606</v>
       </c>
       <c r="X20" t="n">
-        <v>-0.20658683315245288</v>
+        <v>-0.206586833152453</v>
       </c>
       <c r="Y20" t="n">
-        <v>0.42773799037943544</v>
+        <v>0.427737990379435</v>
       </c>
       <c r="Z20" t="n">
-        <v>-0.6456793923504571</v>
+        <v>-0.645679392350457</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B21" t="n">
-        <v>0.8029863325731461</v>
+        <v>0.802986332573146</v>
       </c>
       <c r="C21" t="n">
-        <v>0.17689659643524452</v>
+        <v>0.176896596435245</v>
       </c>
       <c r="D21" t="n">
-        <v>0.6176050955657476</v>
+        <v>0.617605095565748</v>
       </c>
       <c r="E21" t="n">
-        <v>-0.017382206999163766</v>
+        <v>-0.0173822069991638</v>
       </c>
       <c r="F21" t="n">
-        <v>0.04158987793778277</v>
+        <v>0.0415898779377828</v>
       </c>
       <c r="G21" t="n">
-        <v>0.05617996612779553</v>
+        <v>0.0561799661277955</v>
       </c>
       <c r="H21" t="n">
-        <v>0.9675746001702192</v>
+        <v>0.967574600170219</v>
       </c>
       <c r="I21" t="n">
-        <v>0.5809706791059193</v>
+        <v>0.580970679105919</v>
       </c>
       <c r="J21" t="n">
-        <v>0.8153883006279398</v>
+        <v>0.81538830062794</v>
       </c>
       <c r="K21" t="n">
-        <v>-0.4116200398367892</v>
+        <v>-0.411620039836789</v>
       </c>
       <c r="L21" t="n">
-        <v>0.1765167789235841</v>
+        <v>0.176516778923584</v>
       </c>
       <c r="M21" t="n">
-        <v>0.0074615245624678845</v>
+        <v>0.00746152456246788</v>
       </c>
       <c r="N21" t="n">
-        <v>0.38547552005999597</v>
+        <v>0.385475520059996</v>
       </c>
       <c r="O21" t="n">
-        <v>-0.062342608842098114</v>
+        <v>-0.0623426088420981</v>
       </c>
       <c r="P21" t="n">
-        <v>0.7976595088675659</v>
+        <v>0.797659508867566</v>
       </c>
       <c r="Q21" t="n">
-        <v>0.6311660539010601</v>
+        <v>0.63116605390106</v>
       </c>
       <c r="R21" t="n">
-        <v>0.7804501554284812</v>
+        <v>0.780450155428481</v>
       </c>
       <c r="S21" t="n">
-        <v>0.8295687287945173</v>
+        <v>0.829568728794517</v>
       </c>
       <c r="T21" t="n">
-        <v>0.7045009169529786</v>
+        <v>0.704500916952979</v>
       </c>
       <c r="U21" t="n">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="V21" t="n">
-        <v>0.3783527889158036</v>
+        <v>0.378352788915804</v>
       </c>
       <c r="W21" t="n">
-        <v>0.008270543628742478</v>
+        <v>0.00827054362874248</v>
       </c>
       <c r="X21" t="n">
-        <v>-0.2689387106973671</v>
+        <v>-0.268938710697367</v>
       </c>
       <c r="Y21" t="n">
-        <v>0.21976854626869444</v>
+        <v>0.219768546268694</v>
       </c>
       <c r="Z21" t="n">
-        <v>-0.4277218278921754</v>
+        <v>-0.427721827892175</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B22" t="n">
-        <v>0.28617676272289555</v>
+        <v>0.286176762722896</v>
       </c>
       <c r="C22" t="n">
-        <v>0.12342536375189614</v>
+        <v>0.123425363751896</v>
       </c>
       <c r="D22" t="n">
-        <v>0.4282428885074724</v>
+        <v>0.428242888507472</v>
       </c>
       <c r="E22" t="n">
-        <v>0.3197340145862147</v>
+        <v>0.319734014586215</v>
       </c>
       <c r="F22" t="n">
-        <v>0.11348022264803917</v>
+        <v>0.113480222648039</v>
       </c>
       <c r="G22" t="n">
-        <v>0.05782745907899716</v>
+        <v>0.0578274590789972</v>
       </c>
       <c r="H22" t="n">
-        <v>0.3892021557968771</v>
+        <v>0.389202155796877</v>
       </c>
       <c r="I22" t="n">
-        <v>0.28412005611371377</v>
+        <v>0.284120056113714</v>
       </c>
       <c r="J22" t="n">
-        <v>0.3369805379030569</v>
+        <v>0.336980537903057</v>
       </c>
       <c r="K22" t="n">
-        <v>-0.37849597407804314</v>
+        <v>-0.378495974078043</v>
       </c>
       <c r="L22" t="n">
-        <v>0.1506415244011129</v>
+        <v>0.150641524401113</v>
       </c>
       <c r="M22" t="n">
-        <v>0.09747728448388304</v>
+        <v>0.097477284483883</v>
       </c>
       <c r="N22" t="n">
-        <v>0.19753563386839837</v>
+        <v>0.197535633868398</v>
       </c>
       <c r="O22" t="n">
-        <v>-0.3204535248684406</v>
+        <v>-0.320453524868441</v>
       </c>
       <c r="P22" t="n">
-        <v>0.4096539265219658</v>
+        <v>0.409653926521966</v>
       </c>
       <c r="Q22" t="n">
-        <v>0.4968038856432159</v>
+        <v>0.496803885643216</v>
       </c>
       <c r="R22" t="n">
-        <v>0.5814972541549599</v>
+        <v>0.58149725415496</v>
       </c>
       <c r="S22" t="n">
-        <v>0.38308629467997524</v>
+        <v>0.383086294679975</v>
       </c>
       <c r="T22" t="n">
-        <v>0.4693794702582946</v>
+        <v>0.469379470258295</v>
       </c>
       <c r="U22" t="n">
-        <v>0.3783527889158036</v>
+        <v>0.378352788915804</v>
       </c>
       <c r="V22" t="n">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="W22" t="n">
-        <v>0.29671931974581145</v>
+        <v>0.296719319745811</v>
       </c>
       <c r="X22" t="n">
-        <v>-0.45675343196694107</v>
+        <v>-0.456753431966941</v>
       </c>
       <c r="Y22" t="n">
-        <v>0.6437262589841476</v>
+        <v>0.643726258984148</v>
       </c>
       <c r="Z22" t="n">
-        <v>-0.45961441884007026</v>
+        <v>-0.45961441884007</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B23" t="n">
-        <v>-0.08458782956211898</v>
+        <v>-0.084587829562119</v>
       </c>
       <c r="C23" t="n">
-        <v>0.030121489048508535</v>
+        <v>0.0301214890485085</v>
       </c>
       <c r="D23" t="n">
-        <v>0.22524543185423943</v>
+        <v>0.225245431854239</v>
       </c>
       <c r="E23" t="n">
-        <v>0.21187556600841595</v>
+        <v>0.211875566008416</v>
       </c>
       <c r="F23" t="n">
-        <v>-0.03958479114431451</v>
+        <v>-0.0395847911443145</v>
       </c>
       <c r="G23" t="n">
-        <v>-0.020568602552664877</v>
+        <v>-0.0205686025526649</v>
       </c>
       <c r="H23" t="n">
-        <v>0.014091803911765958</v>
+        <v>0.014091803911766</v>
       </c>
       <c r="I23" t="n">
-        <v>-0.17330317079879684</v>
+        <v>-0.173303170798797</v>
       </c>
       <c r="J23" t="n">
-        <v>-0.09522344759233677</v>
+        <v>-0.0952234475923368</v>
       </c>
       <c r="K23" t="n">
-        <v>-0.20914989074688217</v>
+        <v>-0.209149890746882</v>
       </c>
       <c r="L23" t="n">
-        <v>0.10520499633194716</v>
+        <v>0.105204996331947</v>
       </c>
       <c r="M23" t="n">
-        <v>-0.029348436638799567</v>
+        <v>-0.0293484366387996</v>
       </c>
       <c r="N23" t="n">
-        <v>-0.15072958826214836</v>
+        <v>-0.150729588262148</v>
       </c>
       <c r="O23" t="n">
-        <v>-0.3550934282905189</v>
+        <v>-0.355093428290519</v>
       </c>
       <c r="P23" t="n">
-        <v>-0.06255645424593269</v>
+        <v>-0.0625564542459327</v>
       </c>
       <c r="Q23" t="n">
-        <v>0.1257376519529986</v>
+        <v>0.125737651952999</v>
       </c>
       <c r="R23" t="n">
-        <v>0.1278531055274935</v>
+        <v>0.127853105527493</v>
       </c>
       <c r="S23" t="n">
-        <v>-0.029723114843876637</v>
+        <v>-0.0297231148438766</v>
       </c>
       <c r="T23" t="n">
-        <v>0.02813812765086062</v>
+        <v>0.0281381276508606</v>
       </c>
       <c r="U23" t="n">
-        <v>0.008270543628742478</v>
+        <v>0.00827054362874248</v>
       </c>
       <c r="V23" t="n">
-        <v>0.29671931974581145</v>
+        <v>0.296719319745811</v>
       </c>
       <c r="W23" t="n">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="X23" t="n">
-        <v>-0.33121212037679115</v>
+        <v>-0.331212120376791</v>
       </c>
       <c r="Y23" t="n">
-        <v>0.2710838280161346</v>
+        <v>0.271083828016135</v>
       </c>
       <c r="Z23" t="n">
-        <v>-0.05382953000817407</v>
+        <v>-0.0538295300081741</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B24" t="n">
-        <v>-0.07284511030367655</v>
+        <v>-0.0728451103036765</v>
       </c>
       <c r="C24" t="n">
-        <v>-0.08353010852171934</v>
+        <v>-0.0835301085217193</v>
       </c>
       <c r="D24" t="n">
-        <v>-0.6215194847103886</v>
+        <v>-0.621519484710389</v>
       </c>
       <c r="E24" t="n">
-        <v>-0.09352809362705967</v>
+        <v>-0.0935280936270597</v>
       </c>
       <c r="F24" t="n">
         <v>0.0303464641101001</v>
@@ -1998,138 +2284,138 @@
         <v>-0.0169998302752807</v>
       </c>
       <c r="H24" t="n">
-        <v>-0.2801629473829435</v>
+        <v>-0.280162947382944</v>
       </c>
       <c r="I24" t="n">
-        <v>0.022711735795511532</v>
+        <v>0.0227117357955115</v>
       </c>
       <c r="J24" t="n">
-        <v>-0.12749098654605362</v>
+        <v>-0.127490986546054</v>
       </c>
       <c r="K24" t="n">
-        <v>0.4942563626777176</v>
+        <v>0.494256362677718</v>
       </c>
       <c r="L24" t="n">
-        <v>-0.29959073701167027</v>
+        <v>-0.29959073701167</v>
       </c>
       <c r="M24" t="n">
-        <v>0.03727040232849405</v>
+        <v>0.0372704023284941</v>
       </c>
       <c r="N24" t="n">
-        <v>-0.09833910460958849</v>
+        <v>-0.0983391046095885</v>
       </c>
       <c r="O24" t="n">
-        <v>0.09001288571804851</v>
+        <v>0.0900128857180485</v>
       </c>
       <c r="P24" t="n">
-        <v>-0.23201804806442144</v>
+        <v>-0.232018048064421</v>
       </c>
       <c r="Q24" t="n">
-        <v>-0.5839620672993736</v>
+        <v>-0.583962067299374</v>
       </c>
       <c r="R24" t="n">
-        <v>-0.4087178123026343</v>
+        <v>-0.408717812302634</v>
       </c>
       <c r="S24" t="n">
-        <v>-0.29511657835112587</v>
+        <v>-0.295116578351126</v>
       </c>
       <c r="T24" t="n">
-        <v>-0.20658683315245288</v>
+        <v>-0.206586833152453</v>
       </c>
       <c r="U24" t="n">
-        <v>-0.2689387106973671</v>
+        <v>-0.268938710697367</v>
       </c>
       <c r="V24" t="n">
-        <v>-0.45675343196694107</v>
+        <v>-0.456753431966941</v>
       </c>
       <c r="W24" t="n">
-        <v>-0.33121212037679115</v>
+        <v>-0.331212120376791</v>
       </c>
       <c r="X24" t="n">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="Y24" t="n">
-        <v>-0.3203153490331011</v>
+        <v>-0.320315349033101</v>
       </c>
       <c r="Z24" t="n">
-        <v>0.31985929658806656</v>
+        <v>0.319859296588067</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B25" t="n">
-        <v>0.08455590777682177</v>
+        <v>0.0845559077768218</v>
       </c>
       <c r="C25" t="n">
-        <v>0.13194355810060088</v>
+        <v>0.131943558100601</v>
       </c>
       <c r="D25" t="n">
-        <v>0.35428835451686685</v>
+        <v>0.354288354516867</v>
       </c>
       <c r="E25" t="n">
-        <v>0.3710258199189911</v>
+        <v>0.371025819918991</v>
       </c>
       <c r="F25" t="n">
-        <v>0.026128403304239975</v>
+        <v>0.02612840330424</v>
       </c>
       <c r="G25" t="n">
-        <v>0.07937092269341771</v>
+        <v>0.0793709226934177</v>
       </c>
       <c r="H25" t="n">
-        <v>0.2032319367615462</v>
+        <v>0.203231936761546</v>
       </c>
       <c r="I25" t="n">
-        <v>0.15882379646701883</v>
+        <v>0.158823796467019</v>
       </c>
       <c r="J25" t="n">
         <v>0.153620581343591</v>
       </c>
       <c r="K25" t="n">
-        <v>-0.3243394126696966</v>
+        <v>-0.324339412669697</v>
       </c>
       <c r="L25" t="n">
-        <v>0.052856757131522276</v>
+        <v>0.0528567571315223</v>
       </c>
       <c r="M25" t="n">
-        <v>-4.5622569097599993E-4</v>
+        <v>-0.000456225690976</v>
       </c>
       <c r="N25" t="n">
-        <v>0.11105607610764806</v>
+        <v>0.111056076107648</v>
       </c>
       <c r="O25" t="n">
-        <v>-0.3039686418570449</v>
+        <v>-0.303968641857045</v>
       </c>
       <c r="P25" t="n">
-        <v>0.3060140067542387</v>
+        <v>0.306014006754239</v>
       </c>
       <c r="Q25" t="n">
-        <v>0.36776739404633046</v>
+        <v>0.36776739404633</v>
       </c>
       <c r="R25" t="n">
-        <v>0.5030086294863072</v>
+        <v>0.503008629486307</v>
       </c>
       <c r="S25" t="n">
-        <v>0.23811413307725982</v>
+        <v>0.23811413307726</v>
       </c>
       <c r="T25" t="n">
-        <v>0.42773799037943544</v>
+        <v>0.427737990379435</v>
       </c>
       <c r="U25" t="n">
-        <v>0.21976854626869444</v>
+        <v>0.219768546268694</v>
       </c>
       <c r="V25" t="n">
-        <v>0.6437262589841476</v>
+        <v>0.643726258984148</v>
       </c>
       <c r="W25" t="n">
-        <v>0.2710838280161346</v>
+        <v>0.271083828016135</v>
       </c>
       <c r="X25" t="n">
-        <v>-0.3203153490331011</v>
+        <v>-0.320315349033101</v>
       </c>
       <c r="Y25" t="n">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="Z25" t="n">
         <v>-0.370885014662896</v>
@@ -2137,85 +2423,86 @@
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B26" t="n">
-        <v>-0.4011099806689772</v>
+        <v>-0.401109980668977</v>
       </c>
       <c r="C26" t="n">
-        <v>-0.12854336852620524</v>
+        <v>-0.128543368526205</v>
       </c>
       <c r="D26" t="n">
         <v>-0.403962001583791</v>
       </c>
       <c r="E26" t="n">
-        <v>-0.13782882248723416</v>
+        <v>-0.137828822487234</v>
       </c>
       <c r="F26" t="n">
-        <v>-0.08720840212673289</v>
+        <v>-0.0872084021267329</v>
       </c>
       <c r="G26" t="n">
-        <v>-0.11428132838583253</v>
+        <v>-0.114281328385833</v>
       </c>
       <c r="H26" t="n">
-        <v>-0.4341566041716615</v>
+        <v>-0.434156604171662</v>
       </c>
       <c r="I26" t="n">
-        <v>-0.3704353355022719</v>
+        <v>-0.370435335502272</v>
       </c>
       <c r="J26" t="n">
-        <v>-0.3694442735640953</v>
+        <v>-0.369444273564095</v>
       </c>
       <c r="K26" t="n">
-        <v>0.29170724964529177</v>
+        <v>0.291707249645292</v>
       </c>
       <c r="L26" t="n">
-        <v>-0.14959965263942152</v>
+        <v>-0.149599652639422</v>
       </c>
       <c r="M26" t="n">
-        <v>-0.048271099327374126</v>
+        <v>-0.0482710993273741</v>
       </c>
       <c r="N26" t="n">
-        <v>-0.37823939841170795</v>
+        <v>-0.378239398411708</v>
       </c>
       <c r="O26" t="n">
-        <v>0.10943032249395479</v>
+        <v>0.109430322493955</v>
       </c>
       <c r="P26" t="n">
-        <v>-0.4820619657939511</v>
+        <v>-0.482061965793951</v>
       </c>
       <c r="Q26" t="n">
-        <v>-0.48005192151963416</v>
+        <v>-0.480051921519634</v>
       </c>
       <c r="R26" t="n">
-        <v>-0.5108695533115873</v>
+        <v>-0.510869553311587</v>
       </c>
       <c r="S26" t="n">
-        <v>-0.4563489462933781</v>
+        <v>-0.456348946293378</v>
       </c>
       <c r="T26" t="n">
-        <v>-0.6456793923504571</v>
+        <v>-0.645679392350457</v>
       </c>
       <c r="U26" t="n">
-        <v>-0.4277218278921754</v>
+        <v>-0.427721827892175</v>
       </c>
       <c r="V26" t="n">
-        <v>-0.45961441884007026</v>
+        <v>-0.45961441884007</v>
       </c>
       <c r="W26" t="n">
-        <v>-0.05382953000817407</v>
+        <v>-0.0538295300081741</v>
       </c>
       <c r="X26" t="n">
-        <v>0.31985929658806656</v>
+        <v>0.319859296588067</v>
       </c>
       <c r="Y26" t="n">
         <v>-0.370885014662896</v>
       </c>
       <c r="Z26" t="n">
-        <v>1.0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
 </worksheet>
 </file>